--- a/figures/phosphor_spectrum-comparison/data/phosphor_spectra.xlsx
+++ b/figures/phosphor_spectrum-comparison/data/phosphor_spectra.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Github/MSc_Thesis_Figures/figures/phosphor_spectrum-comparison/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Weinold\Documents\GitHub\MSc_Thesis_Figures\figures\phosphor_spectrum-comparison\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC1B88E-227A-F44B-9B57-93F2520C2006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A0B190-E964-46A6-8B9C-E6F1BE03B407}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="7" xr2:uid="{150FD14A-8501-9343-A8CB-2EF376BBC9B2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{150FD14A-8501-9343-A8CB-2EF376BBC9B2}"/>
   </bookViews>
   <sheets>
     <sheet name="1998 Nichia YAG" sheetId="4" r:id="rId1"/>
-    <sheet name="2004 Lumileds" sheetId="2" r:id="rId2"/>
-    <sheet name="2014 Lumileds SLA Commercial" sheetId="12" r:id="rId3"/>
-    <sheet name="2014 Lumileds SLA" sheetId="11" r:id="rId4"/>
-    <sheet name="2015 GE PFS" sheetId="6" r:id="rId5"/>
-    <sheet name="2017 Lumileds QD" sheetId="9" r:id="rId6"/>
-    <sheet name="2019 Osram QD" sheetId="7" r:id="rId7"/>
-    <sheet name="2019 UIBK SALON" sheetId="13" r:id="rId8"/>
+    <sheet name="2002 Lumileds YGAG" sheetId="14" r:id="rId2"/>
+    <sheet name="2004 Lumileds" sheetId="2" r:id="rId3"/>
+    <sheet name="2014 Lumileds SLA Commercial" sheetId="12" r:id="rId4"/>
+    <sheet name="2014 Lumileds SLA" sheetId="11" r:id="rId5"/>
+    <sheet name="2015 GE PFS" sheetId="6" r:id="rId6"/>
+    <sheet name="2017 Lumileds QD" sheetId="9" r:id="rId7"/>
+    <sheet name="2019 Osram QD" sheetId="7" r:id="rId8"/>
+    <sheet name="2019 UIBK SALON" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="2">
   <si>
     <t>nm</t>
   </si>
@@ -114,7 +115,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -845,7 +846,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2108625279"/>
@@ -907,7 +908,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1925759423"/>
@@ -955,7 +956,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-AT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -969,7 +970,742 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2002 Lumileds YGAG'!$A$2:$A$172</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="171"/>
+                <c:pt idx="0">
+                  <c:v>403.48937538723197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>411.12993742062997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>418.77002428156499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>426.40778807712002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>434.04380957363998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>441.67713842619798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>447.91808373808698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>452.07175782340198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>455.53045371377198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>457.94648042627898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>459.94172256303301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>461.38335886095803</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>463.79983082766302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>465.450755957409</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>466.54685563900199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>467.79384652442502</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>471.84798821556598</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>478.130549044676</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>483.20758135859899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>488.85265443136001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>491.07798540533599</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>495.148185549245</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>500.32147787176001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>504.75522708372102</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>510.99519942342198</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>516.19187593586003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>521.73318541985304</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>526.92935376173898</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>532.47325710494397</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>539.40554231595002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>547.03390825610495</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>554.66406929223604</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>562.297028566211</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>569.93231090556503</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>577.56954673171504</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>585.20731052727001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>592.842751257445</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>600.47993428665495</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>605.74985033775704</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>606.71171555816704</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>607.25903828396895</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>607.60614791687794</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>607.95881624497702</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>609.79071512613598</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>612.39589027135696</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>613.51936433232299</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>614.64654419008195</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>617.528757605088</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>625.45209516290299</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>633.08653275120901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>638.27161637591598</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>641.60745112208394</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>644.90656092957295</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>649.78184549507796</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>654.31142197990198</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>658.14566074775701</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>661.63351110864005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>664.703558161008</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>667.56455836753196</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>670.70299065701101</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>673.49548947315498</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>676.28802147594695</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>680.12232385154402</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>683.26380516433403</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>686.75002937945101</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>690.23718282072002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>693.72214041209497</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>697.55625196446499</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>701.73612414304296</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>706.95856870509294</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>713.57074841271299</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>720.87770769821805</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>728.52819555641997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>736.17641314618299</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>743.82362759407704</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>751.46904694599698</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>758.76523037595598</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>766.381011497234</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>773.77037030174404</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>782.63710676091705</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>790.76515439275795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2002 Lumileds YGAG'!$B$2:$B$172</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="171"/>
+                <c:pt idx="0">
+                  <c:v>2.9037359674366401E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9037359674366401E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1902654137233597E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.17664943751898E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.40599979730413E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3643835099851098E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1865798508872203E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10951414274973401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.148195794768089</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18897401329150501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24065437764123301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28672642658992498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32629911937293099</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36990770267817702</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41121006282785799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.448160535117056</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.47157190635451501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46153846153846101</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.43717889794734999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.43143812709029999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40635451505016701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.38628762541806</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.379598662207357</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.39615290338242798</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.427009188990988</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.46165869435586299</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.50352450675377802</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.53954988388759795</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.57439282247168899</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.61143216406108203</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64445308651577604</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.672613786617831</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.69319825775841903</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70749302938382796</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.71649873550783505</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.72407496446930197</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.737940892945948</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74708954678620998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.77150501672240701</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.80012314951647601</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.84615384615384603</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.90635451505016695</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.95150501672240795</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99163879598662197</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.93812709030100305</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.896321070234113</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.84448160535117001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.81931255683362103</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.83728955574253805</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.85387149082801195</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.87959866220735705</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.84782608695652095</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.82168783356852104</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.78619595773286299</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.74639863282431496</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.70860802157060998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.66835394467345899</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.63093023255813896</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59531480905343304</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.56080008296388395</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.522590158409167</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.48429038100423299</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.44632755178761202</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.40355759508438899</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.36770630784786401</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.32933914080526799</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.29691723735201903</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.25947106202414499</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.226188068756319</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.191070579796565</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.15448549428326899</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.11740485668695901</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.0530686031191396E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.9803267174348899E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.1791854926334001E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.8640665030957998E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.0735656322107199E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.3411371237458099E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.67224080267558E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.00334448160535E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.3444816053511601E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66DA-477D-BA95-136B49855E70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1925759423"/>
+        <c:axId val="2108625279"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1925759423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="350"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108625279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2108625279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1925759423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1604,7 +2340,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2108625279"/>
@@ -1666,7 +2402,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1925759423"/>
@@ -1714,7 +2450,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-AT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1725,10 +2461,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2297,7 +3033,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2108625279"/>
@@ -2359,7 +3095,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1925759423"/>
@@ -2407,7 +3143,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-AT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2418,10 +3154,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3260,7 +3996,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2108625279"/>
@@ -3322,7 +4058,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1925759423"/>
@@ -3370,7 +4106,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-AT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3381,10 +4117,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4535,7 +5271,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2108625279"/>
@@ -4597,7 +5333,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1925759423"/>
@@ -4645,7 +5381,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-AT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4656,10 +5392,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5366,7 +6102,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2108625279"/>
@@ -5428,7 +6164,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1925759423"/>
@@ -5476,7 +6212,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-AT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5487,10 +6223,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6275,7 +7011,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2108625279"/>
@@ -6337,7 +7073,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-AT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1925759423"/>
@@ -6385,7 +7121,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-AT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6676,6 +7412,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9773,6 +10549,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10348,6 +11640,49 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AECDB9C-A957-4212-9792-732A28286CA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>829732</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>194732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>804333</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>59266</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -10374,7 +11709,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10417,7 +11752,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10460,7 +11795,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10503,7 +11838,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10546,7 +11881,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10892,12 +12227,12 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10905,7 +12240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>421.79339847176101</v>
       </c>
@@ -10913,7 +12248,7 @@
         <v>1.5727554179566498E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>426.06559697446698</v>
       </c>
@@ -10921,7 +12256,7 @@
         <v>3.9754719400841403E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>428.99695972886701</v>
       </c>
@@ -10929,7 +12264,7 @@
         <v>6.8004086921850296E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>431.00196501145899</v>
       </c>
@@ -10937,7 +12272,7 @@
         <v>9.4618940443213395E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>432.70280573293201</v>
       </c>
@@ -10945,7 +12280,7 @@
         <v>0.12077984892787499</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>434.44206597050697</v>
       </c>
@@ -10953,7 +12288,7 @@
         <v>0.14804846491227999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>435.507318770366</v>
       </c>
@@ -10961,7 +12296,7 @@
         <v>0.175646472953216</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>437.10637627481202</v>
       </c>
@@ -10969,7 +12304,7 @@
         <v>0.20318169451739301</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>437.61829882026001</v>
       </c>
@@ -10977,7 +12312,7 @@
         <v>0.23022130847953201</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>438.91933370777798</v>
       </c>
@@ -10985,7 +12320,7 @@
         <v>0.26129512831665902</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>439.81528145269698</v>
       </c>
@@ -10993,7 +12328,7 @@
         <v>0.29132633904837801</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>441.10439881454198</v>
       </c>
@@ -11001,7 +12336,7 @@
         <v>0.32369821187584302</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>442.19557382616802</v>
       </c>
@@ -11009,7 +12344,7 @@
         <v>0.35609633973915</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>443.23764041378797</v>
       </c>
@@ -11017,7 +12352,7 @@
         <v>0.38347326955302402</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>443.92604065092002</v>
       </c>
@@ -11025,7 +12360,7 @@
         <v>0.406281866776315</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>444.996066295871</v>
       </c>
@@ -11033,7 +12368,7 @@
         <v>0.44670300094642201</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>446.42509942111201</v>
       </c>
@@ -11041,7 +12376,7 @@
         <v>0.48456730769230699</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>446.90314651405203</v>
       </c>
@@ -11049,7 +12384,7 @@
         <v>0.50975083679593702</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>447.70528652433501</v>
       </c>
@@ -11057,7 +12392,7 @@
         <v>0.53319764254385904</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>448.30667501413097</v>
       </c>
@@ -11065,7 +12400,7 @@
         <v>0.56267629483089998</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>449.634639154306</v>
       </c>
@@ -11073,7 +12408,7 @@
         <v>0.61398006769820102</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>450.64288855208201</v>
       </c>
@@ -11081,7 +12416,7 @@
         <v>0.65730422391935495</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>451.11056676765901</v>
       </c>
@@ -11089,7 +12424,7 @@
         <v>0.69253672375382902</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>452.112168515409</v>
       </c>
@@ -11097,7 +12432,7 @@
         <v>0.71718932748538</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>452.97376223744101</v>
       </c>
@@ -11105,7 +12440,7 @@
         <v>0.74150610902255598</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>453.55235128451898</v>
       </c>
@@ -11113,7 +12448,7 @@
         <v>0.76923629385964898</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>454.65513854094002</v>
       </c>
@@ -11121,7 +12456,7 @@
         <v>0.80399339407130199</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>455.84045305406403</v>
       </c>
@@ -11129,7 +12464,7 @@
         <v>0.84558231839930398</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>456.74801086563798</v>
       </c>
@@ -11137,7 +12472,7 @@
         <v>0.88007014732343603</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>458.06272799929502</v>
       </c>
@@ -11145,7 +12480,7 @@
         <v>0.91368951854066904</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>459.47960896613</v>
       </c>
@@ -11153,7 +12488,7 @@
         <v>0.94105263157894703</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>463.86382188628602</v>
       </c>
@@ -11161,7 +12496,7 @@
         <v>0.99139182615629995</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>468.04088081366598</v>
       </c>
@@ -11169,7 +12504,7 @@
         <v>0.96631578947368402</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>469.19696279265298</v>
       </c>
@@ -11177,7 +12512,7 @@
         <v>0.93310496739381299</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>470.20678785671902</v>
       </c>
@@ -11185,7 +12520,7 @@
         <v>0.90933717105263101</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>471.06440809887499</v>
       </c>
@@ -11193,7 +12528,7 @@
         <v>0.87968180668016205</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>471.92412989458398</v>
       </c>
@@ -11201,7 +12536,7 @@
         <v>0.85047449352547999</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>472.81461127041001</v>
       </c>
@@ -11209,7 +12544,7 @@
         <v>0.82299557739697904</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>473.71251991487702</v>
       </c>
@@ -11217,7 +12552,7 @@
         <v>0.79227060948823402</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>474.3689842942</v>
       </c>
@@ -11225,7 +12560,7 @@
         <v>0.76373134041243396</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>475.186524464912</v>
       </c>
@@ -11233,7 +12568,7 @@
         <v>0.73733646036387201</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>475.64489883256499</v>
       </c>
@@ -11241,7 +12576,7 @@
         <v>0.70792512341075298</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>477.05303005367102</v>
       </c>
@@ -11249,7 +12584,7 @@
         <v>0.67378555289739395</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>477.63131539129398</v>
       </c>
@@ -11257,7 +12592,7 @@
         <v>0.64467699697962799</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>479.08211885661899</v>
       </c>
@@ -11265,7 +12600,7 @@
         <v>0.61377364932216905</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>479.89696966940897</v>
       </c>
@@ -11273,7 +12608,7 @@
         <v>0.58465893351800502</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>480.90830480673202</v>
       </c>
@@ -11281,7 +12616,7 @@
         <v>0.56121308479532095</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>481.89960288427801</v>
       </c>
@@ -11289,7 +12624,7 @@
         <v>0.53349533492822898</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>483.30848672594198</v>
       </c>
@@ -11297,7 +12632,7 @@
         <v>0.50449436997097996</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>484.67574417967398</v>
       </c>
@@ -11305,7 +12640,7 @@
         <v>0.47458740910664798</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>485.586952017714</v>
       </c>
@@ -11313,7 +12648,7 @@
         <v>0.44838817017662203</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>486.97835647230801</v>
       </c>
@@ -11321,7 +12656,7 @@
         <v>0.42097309989612097</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>488.73462911848299</v>
       </c>
@@ -11329,7 +12664,7 @@
         <v>0.392886389599166</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>490.87266815608399</v>
       </c>
@@ -11337,7 +12672,7 @@
         <v>0.36405285087719202</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>493.43225688362998</v>
       </c>
@@ -11345,7 +12680,7 @@
         <v>0.33600716759002702</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>496.43979055283597</v>
       </c>
@@ -11353,7 +12688,7 @@
         <v>0.30935620300751798</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>504.43885422985198</v>
       </c>
@@ -11361,7 +12696,7 @@
         <v>0.29198872180451102</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>512.656264493957</v>
       </c>
@@ -11369,7 +12704,7 @@
         <v>0.31496331738437</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>516.111872277629</v>
       </c>
@@ -11377,7 +12712,7 @@
         <v>0.33692616959064298</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>519.20708563740402</v>
       </c>
@@ -11385,7 +12720,7 @@
         <v>0.35932565789473597</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>522.03563356483698</v>
       </c>
@@ -11393,7 +12728,7 @@
         <v>0.38389985380116898</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>525.36472562347001</v>
       </c>
@@ -11401,7 +12736,7 @@
         <v>0.40894005847953202</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>528.97045028142497</v>
       </c>
@@ -11409,7 +12744,7 @@
         <v>0.43274999999999902</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>531.62426469550905</v>
       </c>
@@ -11417,7 +12752,7 @@
         <v>0.45666823308270599</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>535.47688282424303</v>
       </c>
@@ -11425,7 +12760,7 @@
         <v>0.48117141812865499</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>539.57879462081496</v>
       </c>
@@ -11433,7 +12768,7 @@
         <v>0.50569901315789401</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>543.66785110348496</v>
       </c>
@@ -11441,7 +12776,7 @@
         <v>0.52748585526315706</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>547.27613604102805</v>
       </c>
@@ -11449,7 +12784,7 @@
         <v>0.55302220394736801</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>554.605329282399</v>
       </c>
@@ -11457,7 +12792,7 @@
         <v>0.57498120300751798</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>565.11419554985002</v>
       </c>
@@ -11465,7 +12800,7 @@
         <v>0.58422149122806999</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>575.57759754686901</v>
       </c>
@@ -11473,7 +12808,7 @@
         <v>0.58376879699248097</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>585.99628468450601</v>
       </c>
@@ -11481,7 +12816,7 @@
         <v>0.57378289473684196</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>596.36538579093099</v>
       </c>
@@ -11489,7 +12824,7 @@
         <v>0.55322525062656602</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>604.98860895202301</v>
       </c>
@@ -11497,7 +12832,7 @@
         <v>0.53232142857142795</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>610.35781126567497</v>
       </c>
@@ -11505,7 +12840,7 @@
         <v>0.50828536184210504</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>614.97427275869097</v>
       </c>
@@ -11513,7 +12848,7 @@
         <v>0.48313995215311001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>619.84672666396</v>
       </c>
@@ -11521,7 +12856,7 @@
         <v>0.45944712475633498</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>624.47059840031602</v>
       </c>
@@ -11529,7 +12864,7 @@
         <v>0.43588157894736801</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>629.58976397479205</v>
       </c>
@@ -11537,7 +12872,7 @@
         <v>0.41166267942583701</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>634.96273463378702</v>
       </c>
@@ -11545,7 +12880,7 @@
         <v>0.388430023923444</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>639.82481512568097</v>
       </c>
@@ -11553,7 +12888,7 @@
         <v>0.36252558479532099</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>644.193756651635</v>
       </c>
@@ -11561,7 +12896,7 @@
         <v>0.337733918128654</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>648.56269817758903</v>
       </c>
@@ -11569,7 +12904,7 @@
         <v>0.31294225146198801</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>653.43013052416097</v>
       </c>
@@ -11577,7 +12912,7 @@
         <v>0.28817882775119602</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>659.04512688851503</v>
       </c>
@@ -11585,7 +12920,7 @@
         <v>0.263421052631579</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>664.41585612718404</v>
       </c>
@@ -11593,7 +12928,7 @@
         <v>0.23971052631578901</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>669.538550746429</v>
       </c>
@@ -11601,7 +12936,7 @@
         <v>0.21624401913875599</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>675.40399189903599</v>
       </c>
@@ -11609,7 +12944,7 @@
         <v>0.19175607287449301</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>682.26355493564995</v>
       </c>
@@ -11617,7 +12952,7 @@
         <v>0.16671491228070101</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>690.11846425397403</v>
       </c>
@@ -11625,7 +12960,7 @@
         <v>0.141381578947368</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>698.48455860570698</v>
       </c>
@@ -11633,7 +12968,7 @@
         <v>0.118782894736842</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>707.85114609929997</v>
       </c>
@@ -11641,7 +12976,7 @@
         <v>9.6989348370927195E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>718.22761641439399</v>
       </c>
@@ -11649,7 +12984,7 @@
         <v>7.8002819548872199E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>728.61770103024901</v>
       </c>
@@ -11657,7 +12992,7 @@
         <v>6.1918859649123102E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>739.007785646103</v>
       </c>
@@ -11665,7 +13000,7 @@
         <v>4.5834899749373298E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>749.43210377511105</v>
       </c>
@@ -11673,7 +13008,7 @@
         <v>3.7049524853800898E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>764.83011733132003</v>
       </c>
@@ -11681,7 +13016,7 @@
         <v>2.6156015037593901E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>775.27228601522495</v>
       </c>
@@ -11689,7 +13024,7 @@
         <v>2.1176378446115099E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>785.71807685254396</v>
       </c>
@@ -11697,7 +13032,7 @@
         <v>1.6968984962405901E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>796.16249376960195</v>
       </c>
@@ -11705,7 +13040,7 @@
         <v>1.24686716791979E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>806.61677793216597</v>
       </c>
@@ -11723,6 +13058,681 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D3BB95-E3BA-441D-9CF7-759DD385084F}">
+  <dimension ref="A1:B82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>403.48937538723197</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.9037359674366401E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>411.12993742062997</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.9037359674366401E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>418.77002428156499</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.1902654137233597E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>426.40778807712002</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.17664943751898E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>434.04380957363998</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.40599979730413E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>441.67713842619798</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.3643835099851098E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>447.91808373808698</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7.1865798508872203E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>452.07175782340198</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.10951414274973401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>455.53045371377198</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.148195794768089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>457.94648042627898</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.18897401329150501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>459.94172256303301</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.24065437764123301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>461.38335886095803</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.28672642658992498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>463.79983082766302</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.32629911937293099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>465.450755957409</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.36990770267817702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>466.54685563900199</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.41121006282785799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>467.79384652442502</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.448160535117056</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>471.84798821556598</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.47157190635451501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>478.130549044676</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.46153846153846101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>483.20758135859899</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.43717889794734999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>488.85265443136001</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.43143812709029999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>491.07798540533599</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.40635451505016701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>495.148185549245</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.38628762541806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>500.32147787176001</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.379598662207357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>504.75522708372102</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.39615290338242798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>510.99519942342198</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.427009188990988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>516.19187593586003</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.46165869435586299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>521.73318541985304</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.50352450675377802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>526.92935376173898</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.53954988388759795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>532.47325710494397</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.57439282247168899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>539.40554231595002</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.61143216406108203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>547.03390825610495</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.64445308651577604</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>554.66406929223604</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.672613786617831</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>562.297028566211</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.69319825775841903</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>569.93231090556503</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.70749302938382796</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>577.56954673171504</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.71649873550783505</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>585.20731052727001</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.72407496446930197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>592.842751257445</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.737940892945948</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>600.47993428665495</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.74708954678620998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>605.74985033775704</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.77150501672240701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>606.71171555816704</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.80012314951647601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>607.25903828396895</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.84615384615384603</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>607.60614791687794</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.90635451505016695</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>607.95881624497702</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.95150501672240795</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>609.79071512613598</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.99163879598662197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>612.39589027135696</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.93812709030100305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>613.51936433232299</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.896321070234113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>614.64654419008195</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.84448160535117001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>617.528757605088</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.81931255683362103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>625.45209516290299</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.83728955574253805</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>633.08653275120901</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.85387149082801195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>638.27161637591598</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.87959866220735705</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>641.60745112208394</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.84782608695652095</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>644.90656092957295</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.82168783356852104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>649.78184549507796</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.78619595773286299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>654.31142197990198</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.74639863282431496</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>658.14566074775701</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.70860802157060998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>661.63351110864005</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.66835394467345899</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>664.703558161008</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.63093023255813896</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>667.56455836753196</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.59531480905343304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>670.70299065701101</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.56080008296388395</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>673.49548947315498</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.522590158409167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>676.28802147594695</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.48429038100423299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>680.12232385154402</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.44632755178761202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>683.26380516433403</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.40355759508438899</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>686.75002937945101</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.36770630784786401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>690.23718282072002</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.32933914080526799</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>693.72214041209497</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.29691723735201903</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>697.55625196446499</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.25947106202414499</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>701.73612414304296</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.226188068756319</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>706.95856870509294</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.191070579796565</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>713.57074841271299</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.15448549428326899</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>720.87770769821805</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.11740485668695901</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>728.52819555641997</v>
+      </c>
+      <c r="B74" s="1">
+        <v>9.0530686031191396E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>736.17641314618299</v>
+      </c>
+      <c r="B75" s="1">
+        <v>6.9803267174348899E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>743.82362759407704</v>
+      </c>
+      <c r="B76" s="1">
+        <v>5.1791854926334001E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>751.46904694599698</v>
+      </c>
+      <c r="B77" s="1">
+        <v>3.8640665030957998E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>758.76523037595598</v>
+      </c>
+      <c r="B78" s="1">
+        <v>3.0735656322107199E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>766.381011497234</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2.3411371237458099E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>773.77037030174404</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1.67224080267558E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>782.63710676091705</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1.00334448160535E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>790.76515439275795</v>
+      </c>
+      <c r="B82" s="1">
+        <v>3.3444816053511601E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9DD1FC-0D6B-A549-A71F-BA1BBF80D458}">
   <dimension ref="A1:B86"/>
   <sheetViews>
@@ -11730,12 +13740,12 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11743,7 +13753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>382.22419095377597</v>
       </c>
@@ -11751,7 +13761,7 @@
         <v>1.08829461804826E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>390.002962329583</v>
       </c>
@@ -11759,7 +13769,7 @@
         <v>1.23780705833087E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>397.76936026205698</v>
       </c>
@@ -11767,7 +13777,7 @@
         <v>1.2450249002755299E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>405.54435086351202</v>
       </c>
@@ -11775,7 +13785,7 @@
         <v>1.35105843551044E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>413.33274602857898</v>
       </c>
@@ -11783,7 +13793,7 @@
         <v>1.6112444522781301E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>421.18782030494498</v>
       </c>
@@ -11791,7 +13801,7 @@
         <v>2.6382402489780701E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>429.38902103616601</v>
       </c>
@@ -11799,7 +13809,7 @@
         <v>5.2641873863445897E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>434.33933390672399</v>
       </c>
@@ -11807,7 +13817,7 @@
         <v>9.4919085152206997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>437.80128750549801</v>
       </c>
@@ -11815,7 +13825,7 @@
         <v>0.15080396292336101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>439.738810978971</v>
       </c>
@@ -11823,7 +13833,7 @@
         <v>0.203511813074683</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>441.95939459469099</v>
       </c>
@@ -11831,7 +13841,7 @@
         <v>0.24624474225986201</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>443.89263054666702</v>
       </c>
@@ -11839,7 +13849,7 @@
         <v>0.29845952743902199</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>446.58242236025802</v>
       </c>
@@ -11847,7 +13857,7 @@
         <v>0.33136114339248002</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>447.806331802952</v>
       </c>
@@ -11855,7 +13865,7 @@
         <v>0.37079679332337201</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>449.82157214408198</v>
       </c>
@@ -11863,7 +13873,7 @@
         <v>0.42743892592282801</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>451.78509835584299</v>
       </c>
@@ -11871,7 +13881,7 @@
         <v>0.48313709097725499</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>454.043992055731</v>
       </c>
@@ -11879,7 +13889,7 @@
         <v>0.53027567984174495</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>456.29263365174</v>
       </c>
@@ -11887,7 +13897,7 @@
         <v>0.57373369809407804</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>458.16943960159</v>
       </c>
@@ -11895,7 +13905,7 @@
         <v>0.60812906751644302</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>462.30511620970202</v>
       </c>
@@ -11903,7 +13913,7 @@
         <v>0.58724137373340402</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>466.69780316209699</v>
       </c>
@@ -11911,7 +13921,7 @@
         <v>0.53955148804003905</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>469.60746958107097</v>
       </c>
@@ -11919,7 +13929,7 @@
         <v>0.49642474763362199</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>472.22896147011602</v>
       </c>
@@ -11927,7 +13937,7 @@
         <v>0.44767530161295299</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>475.61565147210399</v>
       </c>
@@ -11935,7 +13945,7 @@
         <v>0.40472891097875102</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>478.11400969256698</v>
       </c>
@@ -11943,7 +13953,7 @@
         <v>0.36897909001794899</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>480.80598168530599</v>
       </c>
@@ -11951,7 +13961,7 @@
         <v>0.32833485592221501</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>484.28244505703799</v>
       </c>
@@ -11959,7 +13969,7 @@
         <v>0.28466647103593801</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>491.16136089100701</v>
       </c>
@@ -11967,7 +13977,7 @@
         <v>0.248401502174284</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>498.89957486921998</v>
       </c>
@@ -11975,7 +13985,7 @@
         <v>0.245232525853811</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>504.84669855419997</v>
       </c>
@@ -11983,7 +13993,7 @@
         <v>0.26998577109632599</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>509.395268860116</v>
       </c>
@@ -11991,7 +14001,7 @@
         <v>0.30401272704460303</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>513.00825210419805</v>
       </c>
@@ -11999,7 +14009,7 @@
         <v>0.34176742152561901</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>518.09112918660105</v>
       </c>
@@ -12007,7 +14017,7 @@
         <v>0.38970966211311903</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>521.65491000455597</v>
       </c>
@@ -12015,7 +14025,7 @@
         <v>0.438066338919469</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>525.33948016067598</v>
       </c>
@@ -12023,7 +14033,7 @@
         <v>0.48405352828480103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>528.228654295355</v>
       </c>
@@ -12031,7 +14041,7 @@
         <v>0.52343142070541204</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>532.35152262872896</v>
       </c>
@@ -12039,7 +14049,7 @@
         <v>0.56247902026176899</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>535.96594290921701</v>
       </c>
@@ -12047,7 +14057,7 @@
         <v>0.60039897392939101</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>539.37545330704495</v>
       </c>
@@ -12055,7 +14065,7 @@
         <v>0.64227165641884598</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>545.30395010747702</v>
       </c>
@@ -12063,7 +14073,7 @@
         <v>0.69114938593290198</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>552.68487080040597</v>
       </c>
@@ -12071,7 +14081,7 @@
         <v>0.73194535645382997</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>560.63687038288595</v>
       </c>
@@ -12079,7 +14089,7 @@
         <v>0.753361724623968</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>568.49778767415899</v>
       </c>
@@ -12087,7 +14097,7 @@
         <v>0.76430362930534101</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>576.34255074774603</v>
       </c>
@@ -12095,7 +14105,7 @@
         <v>0.77338779895285703</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>584.10506479384003</v>
       </c>
@@ -12103,7 +14113,7 @@
         <v>0.79427674910089496</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>591.23522310062003</v>
       </c>
@@ -12111,7 +14121,7 @@
         <v>0.82749846387680503</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>597.11166621221503</v>
       </c>
@@ -12119,7 +14129,7 @@
         <v>0.86538686184241098</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>602.975861854448</v>
       </c>
@@ -12127,7 +14137,7 @@
         <v>0.90186680083125503</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>609.799883246484</v>
       </c>
@@ -12135,7 +14145,7 @@
         <v>0.94240960773626203</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>617.29967930268401</v>
       </c>
@@ -12143,7 +14153,7 @@
         <v>0.97561282637098001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>625.16540848858699</v>
       </c>
@@ -12151,7 +14161,7 @@
         <v>0.98710809893477802</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>632.76682717661095</v>
       </c>
@@ -12159,7 +14169,7 @@
         <v>0.96820766424249904</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>638.93206717102305</v>
       </c>
@@ -12167,7 +14177,7 @@
         <v>0.93299061042075704</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>644.45079475124805</v>
       </c>
@@ -12175,7 +14185,7 @@
         <v>0.88721488495422796</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>649.12257159217097</v>
       </c>
@@ -12183,7 +14193,7 @@
         <v>0.84326911155851503</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>651.788590354912</v>
       </c>
@@ -12191,7 +14201,7 @@
         <v>0.81673437689824202</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>654.57798347724201</v>
       </c>
@@ -12199,7 +14209,7 @@
         <v>0.77502392496192696</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>657.57899168935796</v>
       </c>
@@ -12207,7 +14217,7 @@
         <v>0.74004652476983301</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>661.56702310567096</v>
       </c>
@@ -12215,7 +14225,7 @@
         <v>0.695825335874519</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>664.04545644311895</v>
       </c>
@@ -12223,7 +14233,7 @@
         <v>0.65778415336695195</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>667.68090349005604</v>
       </c>
@@ -12231,7 +14241,7 @@
         <v>0.624325614524883</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>670.30135506880197</v>
       </c>
@@ -12239,7 +14249,7 @@
         <v>0.58352980942431898</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>674.14751702788897</v>
       </c>
@@ -12247,7 +14257,7 @@
         <v>0.538712843547419</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>677.16054742258495</v>
       </c>
@@ -12255,7 +14265,7 @@
         <v>0.50246980301677002</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>680.52328415170302</v>
       </c>
@@ -12263,7 +14273,7 @@
         <v>0.46391615362004202</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>685.68624490901595</v>
       </c>
@@ -12271,7 +14281,7 @@
         <v>0.41475092351088</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>689.71025357053304</v>
       </c>
@@ -12279,7 +14289,7 @@
         <v>0.37691823317047202</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>694.92600032162295</v>
       </c>
@@ -12287,7 +14297,7 @@
         <v>0.33040335967645601</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>701.51867219586802</v>
       </c>
@@ -12295,7 +14305,7 @@
         <v>0.28424870190305901</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>708.15993594284805</v>
       </c>
@@ -12303,7 +14313,7 @@
         <v>0.239984123639752</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>715.56062988345798</v>
       </c>
@@ -12311,7 +14321,7 @@
         <v>0.19800034299487401</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>723.04072008545995</v>
       </c>
@@ -12319,7 +14329,7 @@
         <v>0.165147132410014</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>730.55036906875796</v>
       </c>
@@ -12327,7 +14337,7 @@
         <v>0.135693181674338</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>738.11019923891104</v>
       </c>
@@ -12335,7 +14345,7 @@
         <v>0.11201006742681199</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>745.70921197962002</v>
       </c>
@@ -12343,7 +14353,7 @@
         <v>9.2832948793321199E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>753.34534505033002</v>
       </c>
@@ -12351,7 +14361,7 @@
         <v>7.7924668109968107E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>760.99350785761396</v>
       </c>
@@ -12359,7 +14369,7 @@
         <v>6.4399807132678094E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>768.69219555851203</v>
       </c>
@@ -12367,7 +14377,7 @@
         <v>5.6685308920854299E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>775.82118930591901</v>
       </c>
@@ -12375,7 +14385,7 @@
         <v>4.7246262044391099E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>782.84028587592798</v>
       </c>
@@ -12383,7 +14393,7 @@
         <v>4.0514484303379499E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>789.01963953770303</v>
       </c>
@@ -12391,7 +14401,7 @@
         <v>3.68544411217974E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>795.18282897091603</v>
       </c>
@@ -12399,7 +14409,7 @@
         <v>3.1335511655563301E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>800.93190626286901</v>
       </c>
@@ -12407,7 +14417,7 @@
         <v>2.58127335634812E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>808.33743211986098</v>
       </c>
@@ -12415,7 +14425,7 @@
         <v>2.0305349974791598E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>830</v>
       </c>
@@ -12432,7 +14442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A4EC4A-D8F7-6143-9BDB-004807BAA07B}">
   <dimension ref="A1:B75"/>
   <sheetViews>
@@ -12440,12 +14450,12 @@
       <selection activeCell="A2" sqref="A2:B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12453,7 +14463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>358.46832285041597</v>
       </c>
@@ -12461,7 +14471,7 @@
         <v>3.7352504493239902E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>367.76590885132998</v>
       </c>
@@ -12469,7 +14479,7 @@
         <v>5.6575759943735503E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>377.06349485224302</v>
       </c>
@@ -12477,7 +14487,7 @@
         <v>7.3923575838086199E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>386.36108085315698</v>
       </c>
@@ -12485,7 +14495,7 @@
         <v>9.9001896751365007E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>395.65866685407002</v>
       </c>
@@ -12493,7 +14503,7 @@
         <v>1.1843684954569699E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>404.95625285498397</v>
       </c>
@@ -12501,7 +14511,7 @@
         <v>2.1598812221614399E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>414.25383885589702</v>
       </c>
@@ -12509,7 +14519,7 @@
         <v>2.7759110208121301E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>423.55142485681102</v>
       </c>
@@ -12517,7 +14527,7 @@
         <v>3.8167373508469299E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>432.18489757194499</v>
       </c>
@@ -12525,7 +14535,7 @@
         <v>6.6519496757052293E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>438.38328823922097</v>
       </c>
@@ -12533,7 +14543,7 @@
         <v>0.111127608033132</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>442.98780702062601</v>
       </c>
@@ -12541,7 +14551,7 @@
         <v>0.15504102524029001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>447.28240626866699</v>
       </c>
@@ -12549,7 +14559,7 @@
         <v>0.19531140110963399</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>450.55869847851199</v>
       </c>
@@ -12557,7 +14567,7 @@
         <v>0.238563725873251</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>452.684563758389</v>
       </c>
@@ -12565,7 +14575,7 @@
         <v>0.28059701492537298</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>455.36912751677801</v>
       </c>
@@ -12573,7 +14583,7 @@
         <v>0.30447761194029799</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>458.724832214765</v>
       </c>
@@ -12581,7 +14591,7 @@
         <v>0.26865671641791</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>461.627253241505</v>
       </c>
@@ -12589,7 +14599,7 @@
         <v>0.22977260295381699</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>464.01806107031098</v>
       </c>
@@ -12597,7 +14607,7 @@
         <v>0.18651558959131001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>471.36758143293798</v>
       </c>
@@ -12605,7 +14615,7 @@
         <v>0.14856607017269599</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>480.66516743385199</v>
       </c>
@@ -12613,7 +14623,7 @@
         <v>0.14205933682373401</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>489.72125769448201</v>
       </c>
@@ -12621,7 +14631,7 @@
         <v>0.16446589392052399</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>499.03896834041899</v>
       </c>
@@ -12629,7 +14639,7 @@
         <v>0.19673907947175101</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>507.22969886503301</v>
       </c>
@@ -12637,7 +14647,7 @@
         <v>0.23817071096626399</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>514.75631610386802</v>
       </c>
@@ -12645,7 +14655,7 @@
         <v>0.279987497069625</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>522.06156224744302</v>
       </c>
@@ -12653,7 +14663,7 @@
         <v>0.32084863639915501</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>529.58817948627802</v>
       </c>
@@ -12661,7 +14671,7 @@
         <v>0.36187387668984899</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>538.22165220141198</v>
       </c>
@@ -12669,7 +14679,7 @@
         <v>0.40081269047432899</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>547.51923820232605</v>
       </c>
@@ -12677,7 +14687,7 @@
         <v>0.427537704149409</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>556.81682420323898</v>
       </c>
@@ -12685,7 +14695,7 @@
         <v>0.43475814644057098</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>566.11441020415305</v>
       </c>
@@ -12693,7 +14703,7 @@
         <v>0.42570915058216702</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>575.411996205067</v>
       </c>
@@ -12701,7 +14711,7 @@
         <v>0.41042431819957698</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>584.70958220598004</v>
       </c>
@@ -12709,7 +14719,7 @@
         <v>0.402735016019379</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>593.65763489858898</v>
       </c>
@@ -12717,7 +14727,7 @@
         <v>0.424309973965937</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>599.09870339787005</v>
       </c>
@@ -12725,7 +14735,7 @@
         <v>0.468375400484488</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>602.19789873150796</v>
       </c>
@@ -12733,7 +14743,7 @@
         <v>0.51374931624599496</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>603.86824426846897</v>
       </c>
@@ -12741,7 +14751,7 @@
         <v>0.55456321438973599</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>605.03355704697901</v>
       </c>
@@ -12749,7 +14759,7 @@
         <v>0.59701492537313405</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>606.37583892617397</v>
       </c>
@@ -12757,7 +14767,7 @@
         <v>0.64776119402985</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>607.95354720826401</v>
       </c>
@@ -12765,7 +14775,7 @@
         <v>0.694383449245916</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>609.20798341473699</v>
       </c>
@@ -12773,7 +14783,7 @@
         <v>0.74023599281081498</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>610.61000035138204</v>
       </c>
@@ -12781,7 +14791,7 @@
         <v>0.78981636321012705</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>612.28034588834305</v>
       </c>
@@ -12789,7 +14799,7 @@
         <v>0.841749841937385</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>613.57637302786395</v>
       </c>
@@ -12797,7 +14807,7 @@
         <v>0.88857232163788302</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>614.429530201342</v>
       </c>
@@ -12805,7 +14815,7 @@
         <v>0.92537313432835799</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>616.44295302013404</v>
       </c>
@@ -12813,7 +14823,7 @@
         <v>0.96716417910447705</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>618.45637583892596</v>
       </c>
@@ -12821,7 +14831,7 @@
         <v>0.99701492537313396</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>621.81208053691205</v>
       </c>
@@ -12829,7 +14839,7 @@
         <v>0.991044776119402</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>623.82550335570397</v>
       </c>
@@ -12837,7 +14847,7 @@
         <v>0.95522388059701402</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>624.96222636072901</v>
       </c>
@@ -12845,7 +14855,7 @@
         <v>0.89356099085723195</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>626.32734811483101</v>
       </c>
@@ -12853,7 +14863,7 @@
         <v>0.84547940923653897</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>627.168558276819</v>
       </c>
@@ -12861,7 +14871,7 @@
         <v>0.79926857857310296</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>628.33981261719396</v>
       </c>
@@ -12869,7 +14879,7 @@
         <v>0.75304581329430897</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>629.46679273851601</v>
       </c>
@@ -12877,7 +14887,7 @@
         <v>0.70300993840885995</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>631.102638884008</v>
       </c>
@@ -12885,7 +14895,7 @@
         <v>0.643250761897319</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>632.02765381777294</v>
       </c>
@@ -12893,7 +14903,7 @@
         <v>0.59400587495648804</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>632.30436768684694</v>
       </c>
@@ -12901,7 +14911,7 @@
         <v>0.53893881378448005</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>633.41122316314704</v>
       </c>
@@ -12909,7 +14919,7 @@
         <v>0.49233414081425297</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>634.739449734706</v>
       </c>
@@ -12917,7 +14927,7 @@
         <v>0.44277565054309598</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>636.51041849678404</v>
       </c>
@@ -12925,7 +14935,7 @@
         <v>0.38796592951472902</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>638.060016163603</v>
       </c>
@@ -12933,7 +14943,7 @@
         <v>0.34546378057357102</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>640.40654977335805</v>
       </c>
@@ -12941,7 +14951,7 @@
         <v>0.29357505665390299</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>642.93018025931997</v>
       </c>
@@ -12949,7 +14959,7 @@
         <v>0.25241853559427901</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>646.02937559295799</v>
       </c>
@@ -12957,7 +14967,7 @@
         <v>0.20872665468469101</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>650.01405530763498</v>
       </c>
@@ -12965,7 +14975,7 @@
         <v>0.16823474251777701</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>653.33462173653299</v>
       </c>
@@ -12973,7 +14983,7 @@
         <v>0.13859810893178001</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>660.772690537264</v>
       </c>
@@ -12981,7 +14991,7 @@
         <v>9.2518559037274295E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>668.12080536912697</v>
       </c>
@@ -12989,7 +14999,7 @@
         <v>6.8656716417910296E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>676.174496644295</v>
       </c>
@@ -12997,7 +15007,7 @@
         <v>4.7761194029850497E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>686.91275167785204</v>
       </c>
@@ -13005,7 +15015,7 @@
         <v>2.9850746268656501E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>697.65100671140897</v>
       </c>
@@ -13013,7 +15023,7 @@
         <v>2.3880597014925301E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>707.04697986577105</v>
       </c>
@@ -13021,7 +15031,7 @@
         <v>1.7910447761193899E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>717.78523489932797</v>
       </c>
@@ -13029,7 +15039,7 @@
         <v>1.49253731343284E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>729.194630872483</v>
       </c>
@@ -13037,7 +15047,7 @@
         <v>8.9552238805969894E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>739.93288590604004</v>
       </c>
@@ -13051,7 +15061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FF317D-903C-F244-A870-31F34BC30325}">
   <dimension ref="A1:B120"/>
   <sheetViews>
@@ -13059,12 +15069,12 @@
       <selection activeCell="A2" sqref="A2:B120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13072,7 +15082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>382.51900197428301</v>
       </c>
@@ -13080,7 +15090,7 @@
         <v>3.2989416491704302E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>387.62564792752198</v>
       </c>
@@ -13088,7 +15098,7 @@
         <v>3.2755969819557801E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>392.73229388076197</v>
       </c>
@@ -13096,7 +15106,7 @@
         <v>3.2522523147409102E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>397.838939834001</v>
       </c>
@@ -13104,7 +15114,7 @@
         <v>3.2289076475260298E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>402.94558578724099</v>
       </c>
@@ -13112,7 +15122,7 @@
         <v>3.2055629803111598E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>407.98983781174297</v>
       </c>
@@ -13120,7 +15130,7 @@
         <v>5.39166565974102E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>413.06083009141798</v>
       </c>
@@ -13128,7 +15138,7 @@
         <v>6.6308623334660997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>418.05160160557301</v>
       </c>
@@ -13136,7 +15146,7 @@
         <v>1.07107770243055E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>422.98220754558798</v>
       </c>
@@ -13144,7 +15154,7 @@
         <v>1.6921230227981001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>427.74791524536801</v>
       </c>
@@ -13152,7 +15162,7 @@
         <v>2.8970937133502701E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>432.196379528911</v>
       </c>
@@ -13160,7 +15170,7 @@
         <v>4.4036022611755501E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>435.51001709429198</v>
       </c>
@@ -13168,7 +15178,7 @@
         <v>6.6412310585645298E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>437.99444677459798</v>
       </c>
@@ -13176,7 +15186,7 @@
         <v>8.5277454498304095E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>439.15894774815303</v>
       </c>
@@ -13184,7 +15194,7 @@
         <v>0.10978988563447201</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>440.06313976544402</v>
       </c>
@@ -13192,7 +15202,7 @@
         <v>0.135301574639559</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>440.43765189484401</v>
       </c>
@@ -13200,7 +15210,7 @@
         <v>0.15491406623946199</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>440.96094383288897</v>
       </c>
@@ -13208,7 +15218,7 @@
         <v>0.177476687102576</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>441.38235044682398</v>
       </c>
@@ -13216,7 +15226,7 @@
         <v>0.20090765884466399</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>441.608157046065</v>
       </c>
@@ -13224,7 +15234,7 @@
         <v>0.225785999954071</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>441.76859857710502</v>
       </c>
@@ -13232,7 +15242,7 @@
         <v>0.25297900018853398</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>441.978063909296</v>
       </c>
@@ -13240,7 +15250,7 @@
         <v>0.27843600607920499</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>442.23222013092101</v>
       </c>
@@ -13248,7 +15258,7 @@
         <v>0.305049987825325</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>442.66982652907399</v>
       </c>
@@ -13256,7 +15266,7 @@
         <v>0.32947275421696398</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>444.62147335811699</v>
       </c>
@@ -13264,7 +15274,7 @@
         <v>0.363320889184227</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>448.26177628007298</v>
       </c>
@@ -13272,7 +15282,7 @@
         <v>0.36685923876148202</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>453.19795310658299</v>
       </c>
@@ -13280,7 +15290,7 @@
         <v>0.360544506279876</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>457.82884535319698</v>
       </c>
@@ -13288,7 +15298,7 @@
         <v>0.35271237042930698</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>461.91644352644801</v>
       </c>
@@ -13296,7 +15306,7 @@
         <v>0.33124452350531902</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>465.48844289062299</v>
       </c>
@@ -13304,7 +15314,7 @@
         <v>0.31159745956492102</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>470.02797259872801</v>
       </c>
@@ -13312,7 +15322,7 @@
         <v>0.29056336776616498</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>475.39310768530999</v>
       </c>
@@ -13320,7 +15330,7 @@
         <v>0.28138659837713698</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>480.48638351096298</v>
       </c>
@@ -13328,7 +15338,7 @@
         <v>0.281836706712774</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>484.99947007784101</v>
       </c>
@@ -13336,7 +15346,7 @@
         <v>0.29461343601057399</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>488.82909553008602</v>
       </c>
@@ -13344,7 +15354,7 @@
         <v>0.31515516326798598</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>492.30056249972898</v>
       </c>
@@ -13352,7 +15362,7 @@
         <v>0.33194251389616702</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>496.199997349623</v>
       </c>
@@ -13360,7 +15370,7 @@
         <v>0.35001220274331701</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>500.78966503617801</v>
       </c>
@@ -13368,7 +15378,7 @@
         <v>0.36829570751972901</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>505.461781842851</v>
       </c>
@@ -13376,7 +15386,7 @@
         <v>0.383659585445217</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>510.09155991216602</v>
       </c>
@@ -13384,7 +15394,7 @@
         <v>0.40052273121307203</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>514.49946814202895</v>
       </c>
@@ -13392,7 +15402,7 @@
         <v>0.417023957466644</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>518.32037825184705</v>
       </c>
@@ -13400,7 +15410,7 @@
         <v>0.43787430594073101</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>521.30649721034604</v>
       </c>
@@ -13408,7 +15418,7 @@
         <v>0.45541122082051899</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>524.15371539891703</v>
       </c>
@@ -13416,7 +15426,7 @@
         <v>0.47786678634105101</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>526.97097459789597</v>
       </c>
@@ -13424,7 +15434,7 @@
         <v>0.501383237293901</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>529.31854616665498</v>
       </c>
@@ -13432,7 +15442,7 @@
         <v>0.52509469874964698</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>531.71514153656403</v>
       </c>
@@ -13440,7 +15450,7 @@
         <v>0.54707016586159996</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>533.87961663587203</v>
       </c>
@@ -13448,7 +15458,7 @@
         <v>0.56904669409479003</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>536.29021880611003</v>
       </c>
@@ -13456,7 +15466,7 @@
         <v>0.59052616282280301</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>538.66463674216504</v>
       </c>
@@ -13464,7 +15474,7 @@
         <v>0.61328696070932798</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>541.03672021149896</v>
       </c>
@@ -13472,7 +15482,7 @@
         <v>0.63613042499317796</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>543.47416874903502</v>
       </c>
@@ -13480,7 +15490,7 @@
         <v>0.65665923015197103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>545.86726241886197</v>
       </c>
@@ -13488,7 +15498,7 @@
         <v>0.67875869685990897</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>548.30821265648001</v>
       </c>
@@ -13496,7 +15506,7 @@
         <v>0.69916350242271696</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>550.64177742490904</v>
       </c>
@@ -13504,7 +15514,7 @@
         <v>0.72337096226240305</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>553.11774466334896</v>
       </c>
@@ -13512,7 +15522,7 @@
         <v>0.74253577186535902</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>555.21685469445504</v>
       </c>
@@ -13520,7 +15530,7 @@
         <v>0.766826959223605</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>557.63446026485803</v>
       </c>
@@ -13528,7 +15538,7 @@
         <v>0.78805842875964804</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>559.993704167224</v>
       </c>
@@ -13536,7 +15546,7 @@
         <v>0.81135655822877595</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>562.46500247222002</v>
       </c>
@@ -13544,7 +15554,7 @@
         <v>0.83068670062637895</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>565.37165229274297</v>
       </c>
@@ -13552,7 +15562,7 @@
         <v>0.85103771744838497</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>568.66608886934</v>
       </c>
@@ -13560,7 +15570,7 @@
         <v>0.87409393654026102</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>572.27230939340905</v>
       </c>
@@ -13568,7 +15578,7 @@
         <v>0.89432810370223603</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>576.36059729546503</v>
       </c>
@@ -13576,7 +15586,7 @@
         <v>0.91392887795126798</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>581.23103766134</v>
       </c>
@@ -13584,7 +15594,7 @@
         <v>0.92226986966777902</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>586.16832866514903</v>
       </c>
@@ -13592,7 +15602,7 @@
         <v>0.92824359637002896</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>591.10784802355499</v>
       </c>
@@ -13600,7 +15610,7 @@
         <v>0.93413841423846899</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>596.00502864460395</v>
       </c>
@@ -13608,7 +15618,7 @@
         <v>0.94153249994927501</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>600.837586982316</v>
       </c>
@@ -13616,7 +15626,7 @@
         <v>0.95121494184053501</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>605.57209771772705</v>
       </c>
@@ -13624,7 +15634,7 @@
         <v>0.96436937241937903</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>610.23752946060699</v>
       </c>
@@ -13632,7 +15642,7 @@
         <v>0.97996997684629406</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>615.188190592002</v>
       </c>
@@ -13640,7 +15650,7 @@
         <v>0.98547025054569104</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>619.87200626031404</v>
       </c>
@@ -13648,7 +15658,7 @@
         <v>0.97576402989216504</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>623.78555402265999</v>
       </c>
@@ -13656,7 +15666,7 @@
         <v>0.95224091745599404</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>626.85826931677798</v>
       </c>
@@ -13664,7 +15674,7 @@
         <v>0.92767295430842001</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>629.35272659277302</v>
       </c>
@@ -13672,7 +15682,7 @@
         <v>0.90303531086628097</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>632.04309337715699</v>
       </c>
@@ -13680,7 +15690,7 @@
         <v>0.87351491805191706</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>634.36677203272802</v>
       </c>
@@ -13688,7 +15698,7 @@
         <v>0.84602126680029399</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>636.73266562817901</v>
       </c>
@@ -13696,7 +15706,7 @@
         <v>0.82456645650864702</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>639.02997542101002</v>
       </c>
@@ -13704,7 +15714,7 @@
         <v>0.79595190752363398</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>641.28011837485406</v>
       </c>
@@ -13712,7 +15722,7 @@
         <v>0.77106224778769805</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>643.28613270276401</v>
       </c>
@@ -13720,7 +15730,7 @@
         <v>0.74385934375502305</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>645.727604658323</v>
       </c>
@@ -13728,7 +15738,7 @@
         <v>0.71972820885002897</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>648.41202916377904</v>
       </c>
@@ -13736,7 +15746,7 @@
         <v>0.68836358732569602</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>650.73775047773097</v>
       </c>
@@ -13744,7 +15754,7 @@
         <v>0.66079760297641399</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>652.89801646279898</v>
       </c>
@@ -13752,7 +15762,7 @@
         <v>0.63909059953743097</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>655.48894911313005</v>
       </c>
@@ -13760,7 +15770,7 @@
         <v>0.61035175788485296</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>658.48252067978399</v>
       </c>
@@ -13768,7 +15778,7 @@
         <v>0.57831311215075398</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>661.17288746416705</v>
       </c>
@@ -13776,7 +15786,7 @@
         <v>0.54879271933638996</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>663.98115071310303</v>
       </c>
@@ -13784,7 +15794,7 @@
         <v>0.521489716200354</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>666.32436578967202</v>
       </c>
@@ -13792,7 +15802,7 @@
         <v>0.49669606267157901</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>668.68070929398903</v>
       </c>
@@ -13800,7 +15810,7 @@
         <v>0.47469886783905801</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>670.88182844668302</v>
       </c>
@@ -13808,7 +15818,7 @@
         <v>0.45154520244691498</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>673.64651498348405</v>
       </c>
@@ -13816,7 +15826,7 @@
         <v>0.42578530539425002</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>676.14451227782899</v>
       </c>
@@ -13824,7 +15834,7 @@
         <v>0.40490331529546603</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>678.87790752837395</v>
       </c>
@@ -13832,7 +15842,7 @@
         <v>0.38207783954306401</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>681.93611198957501</v>
       </c>
@@ -13840,7 +15850,7 @@
         <v>0.35714315794892898</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>684.68103809089598</v>
       </c>
@@ -13848,7 +15858,7 @@
         <v>0.33547480964072302</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>687.19115574781495</v>
       </c>
@@ -13856,7 +15866,7 @@
         <v>0.31781633742811499</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>690.37828643931698</v>
       </c>
@@ -13864,7 +15874,7 @@
         <v>0.29536073822119402</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>693.49888482925599</v>
       </c>
@@ -13872,7 +15882,7 @@
         <v>0.27526113133799102</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>696.46556758376403</v>
       </c>
@@ -13880,7 +15890,7 @@
         <v>0.25239326126569001</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>700.10176478278004</v>
       </c>
@@ -13888,7 +15898,7 @@
         <v>0.23047287139889699</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>703.74263091523801</v>
       </c>
@@ -13896,7 +15906,7 @@
         <v>0.20838714873745801</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>707.84540312217905</v>
       </c>
@@ -13904,7 +15914,7 @@
         <v>0.186381970230868</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>712.39607460327397</v>
       </c>
@@ -13912,7 +15922,7 @@
         <v>0.16495333426306799</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>716.84869848206597</v>
       </c>
@@ -13920,7 +15930,7 @@
         <v>0.14699668698285201</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>722.083103432244</v>
       </c>
@@ -13928,7 +15938,7 @@
         <v>0.12601201770959</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>727.73346790734195</v>
       </c>
@@ -13936,7 +15946,7 @@
         <v>0.106734917593043</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>733.288013134734</v>
       </c>
@@ -13944,7 +15954,7 @@
         <v>9.0850897330273003E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>738.73336898683601</v>
       </c>
@@ -13952,7 +15962,7 @@
         <v>7.8833409924130099E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>744.14529951997099</v>
       </c>
@@ -13960,7 +15970,7 @@
         <v>6.7999555025118605E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>749.47700928758695</v>
       </c>
@@ -13968,7 +15978,7 @@
         <v>6.0006418143221101E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>754.77083702703897</v>
       </c>
@@ -13976,7 +15986,7 @@
         <v>5.33547314360725E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>760.02455438373204</v>
       </c>
@@ -13984,7 +15994,7 @@
         <v>4.81234037374813E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>765.25821654904496</v>
       </c>
@@ -13992,7 +16002,7 @@
         <v>4.3602255543168301E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>770.51416226033598</v>
       </c>
@@ -14000,7 +16010,7 @@
         <v>3.8292019010768001E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>775.68320214231301</v>
       </c>
@@ -14008,7 +16018,7 @@
         <v>3.6059226996908798E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>778.74533275209205</v>
       </c>
@@ -14016,7 +16026,7 @@
         <v>3.44672557446523E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>783.779617515415</v>
       </c>
@@ -14030,7 +16040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA87AA6-0BFC-AF44-A8A1-366663043411}">
   <dimension ref="A1:B196"/>
   <sheetViews>
@@ -14038,12 +16048,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14051,7 +16061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>422.62376540000002</v>
       </c>
@@ -14059,7 +16069,7 @@
         <v>3.1424869999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>425.37873830000001</v>
       </c>
@@ -14067,7 +16077,7 @@
         <v>7.9160529999999993E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>428.13371110000003</v>
       </c>
@@ -14075,7 +16085,7 @@
         <v>1.4376382E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>430.88868389999999</v>
       </c>
@@ -14083,7 +16093,7 @@
         <v>2.2994777000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>433.64365670000001</v>
       </c>
@@ -14091,7 +16101,7 @@
         <v>3.4267343999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>436.39862950000003</v>
       </c>
@@ -14099,7 +16109,7 @@
         <v>4.9434351000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>439.35264799999999</v>
       </c>
@@ -14107,7 +16117,7 @@
         <v>6.8052820999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>441.74711150000002</v>
       </c>
@@ -14115,7 +16125,7 @@
         <v>8.6166505000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>444.26998040000001</v>
       </c>
@@ -14123,7 +16133,7 @@
         <v>0.108649304</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>446.61445809999998</v>
       </c>
@@ -14131,7 +16141,7 @@
         <v>0.13084358500000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>449.51754770000002</v>
       </c>
@@ -14139,7 +16149,7 @@
         <v>0.14532249899999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>452.27252049999998</v>
       </c>
@@ -14147,7 +16157,7 @@
         <v>0.13461752599999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>454.08377760000002</v>
       </c>
@@ -14155,7 +16165,7 @@
         <v>0.11291024299999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>456.33938510000002</v>
       </c>
@@ -14163,7 +16173,7 @@
         <v>9.2060309000000007E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>458.65904840000002</v>
       </c>
@@ -14171,7 +16181,7 @@
         <v>7.5524967999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>461.45576319999998</v>
       </c>
@@ -14179,7 +16189,7 @@
         <v>5.8046795999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>464.210736</v>
       </c>
@@ -14187,7 +16197,7 @@
         <v>4.4538818000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>466.96570889999998</v>
       </c>
@@ -14195,7 +16205,7 @@
         <v>3.8968553000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>469.7206817</v>
       </c>
@@ -14203,7 +16213,7 @@
         <v>3.7937666000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>472.47565450000002</v>
       </c>
@@ -14211,7 +16221,7 @@
         <v>3.9288093000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>475.23062729999998</v>
       </c>
@@ -14219,7 +16229,7 @@
         <v>4.2350089E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>477.9856001</v>
       </c>
@@ -14227,7 +16237,7 @@
         <v>4.7818205000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>480.74057290000002</v>
       </c>
@@ -14235,7 +16245,7 @@
         <v>5.5890882000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>483.4955458</v>
       </c>
@@ -14243,7 +16253,7 @@
         <v>6.6692146999999993E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>486.25051860000002</v>
       </c>
@@ -14251,7 +16261,7 @@
         <v>8.0048363999999997E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>489.00549139999998</v>
       </c>
@@ -14259,7 +16269,7 @@
         <v>9.2759641000000004E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>491.7604642</v>
       </c>
@@ -14267,7 +16277,7 @@
         <v>0.103188827</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>494.51543700000002</v>
       </c>
@@ -14275,7 +16285,7 @@
         <v>0.112005664</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>497.27040979999998</v>
       </c>
@@ -14283,7 +16293,7 @@
         <v>0.119631845</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>500.02538270000002</v>
       </c>
@@ -14291,7 +16301,7 @@
         <v>0.126340227</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>502.78035549999998</v>
       </c>
@@ -14299,7 +16309,7 @@
         <v>0.132279644</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>505.5353283</v>
       </c>
@@ -14307,7 +16317,7 @@
         <v>0.13745009499999999</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>508.29030110000002</v>
       </c>
@@ -14315,7 +16325,7 @@
         <v>0.14145469499999999</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>511.04527389999998</v>
       </c>
@@ -14323,7 +16333,7 @@
         <v>0.142879538</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>513.8002467</v>
       </c>
@@ -14331,7 +16341,7 @@
         <v>0.14294008699999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>516.55521950000002</v>
       </c>
@@ -14339,7 +16349,7 @@
         <v>0.14305024599999999</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>519.31019240000001</v>
       </c>
@@ -14347,7 +16357,7 @@
         <v>0.14400378799999999</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>522.06516520000002</v>
       </c>
@@ -14355,7 +16365,7 @@
         <v>0.14518057700000001</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>524.82013800000004</v>
       </c>
@@ -14363,7 +16373,7 @@
         <v>0.14720074899999999</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>527.57511079999995</v>
       </c>
@@ -14371,7 +16381,7 @@
         <v>0.149593001</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>530.33008359999997</v>
       </c>
@@ -14379,7 +16389,7 @@
         <v>0.152506165</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>533.08505639999998</v>
       </c>
@@ -14387,7 +16397,7 @@
         <v>0.15569218800000001</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>535.84002929999997</v>
       </c>
@@ -14395,7 +16405,7 @@
         <v>0.159399123</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>538.59500209999999</v>
       </c>
@@ -14403,7 +16413,7 @@
         <v>0.16342852799999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>541.34997490000001</v>
       </c>
@@ -14411,7 +16421,7 @@
         <v>0.16810287199999999</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>544.10494770000003</v>
       </c>
@@ -14419,7 +16429,7 @@
         <v>0.17319890700000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>546.85992050000004</v>
       </c>
@@ -14427,7 +16437,7 @@
         <v>0.17889026999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>549.61489329999995</v>
       </c>
@@ -14435,7 +16445,7 @@
         <v>0.18527618400000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>552.36986620000005</v>
       </c>
@@ -14443,7 +16453,7 @@
         <v>0.19193495599999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>555.12483899999995</v>
       </c>
@@ -14451,7 +16461,7 @@
         <v>0.19799839899999999</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>557.87981179999997</v>
       </c>
@@ -14459,7 +16469,7 @@
         <v>0.20334248799999999</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>560.63478459999999</v>
       </c>
@@ -14467,7 +16477,7 @@
         <v>0.20776877799999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>563.38975740000001</v>
       </c>
@@ -14475,7 +16485,7 @@
         <v>0.21120285499999999</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>566.14473020000003</v>
       </c>
@@ -14483,7 +16493,7 @@
         <v>0.21347108000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>568.89970310000001</v>
       </c>
@@ -14491,7 +16501,7 @@
         <v>0.213953319</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>571.65467590000003</v>
       </c>
@@ -14499,7 +16509,7 @@
         <v>0.21307126500000001</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>574.40964870000005</v>
       </c>
@@ -14507,7 +16517,7 @@
         <v>0.21070089</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>577.16462149999995</v>
       </c>
@@ -14515,7 +16525,7 @@
         <v>0.207884018</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>579.91959429999997</v>
       </c>
@@ -14523,7 +16533,7 @@
         <v>0.204719871</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>582.67456709999999</v>
       </c>
@@ -14531,7 +16541,7 @@
         <v>0.201059617</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>585.42953990000001</v>
       </c>
@@ -14539,7 +16549,7 @@
         <v>0.19705208900000001</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>588.18451279999999</v>
       </c>
@@ -14547,7 +16557,7 @@
         <v>0.19267248000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>590.93948560000001</v>
       </c>
@@ -14555,7 +16565,7 @@
         <v>0.18730065700000001</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>593.69445840000003</v>
       </c>
@@ -14563,7 +16573,7 @@
         <v>0.181035842</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>596.44943120000005</v>
       </c>
@@ -14571,7 +16581,7 @@
         <v>0.173853228</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>599.44054459999995</v>
       </c>
@@ -14579,7 +16589,7 @@
         <v>0.17286473999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>601.75754730000006</v>
       </c>
@@ -14587,7 +16597,7 @@
         <v>0.18458276400000001</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>604.71434969999996</v>
       </c>
@@ -14595,7 +16605,7 @@
         <v>0.183113633</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>607.49847560000001</v>
       </c>
@@ -14603,7 +16613,7 @@
         <v>0.19022229800000001</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>608.54070079999997</v>
       </c>
@@ -14611,7 +16621,7 @@
         <v>0.21412999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>609.04359269999998</v>
       </c>
@@ -14619,7 +16629,7 @@
         <v>0.23610108399999999</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>609.53919619999999</v>
       </c>
@@ -14627,7 +16637,7 @@
         <v>0.25906616599999999</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>610.48667369999998</v>
       </c>
@@ -14635,7 +16645,7 @@
         <v>0.28181695899999998</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>612.83350229999996</v>
       </c>
@@ -14643,7 +16653,7 @@
         <v>0.30072473799999999</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>613.1795042</v>
       </c>
@@ -14651,7 +16661,7 @@
         <v>0.33775215200000003</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>613.39354969999999</v>
       </c>
@@ -14659,7 +16669,7 @@
         <v>0.365008797</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>613.66145189999997</v>
       </c>
@@ -14667,7 +16677,7 @@
         <v>0.39249007000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>614.09152419999998</v>
       </c>
@@ -14675,7 +16685,7 @@
         <v>0.42125048700000001</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>614.77520279999999</v>
       </c>
@@ -14683,7 +16693,7 @@
         <v>0.44867159499999998</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>616.58697059999997</v>
       </c>
@@ -14691,7 +16701,7 @@
         <v>0.450141228</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>616.64787990000002</v>
       </c>
@@ -14699,7 +16709,7 @@
         <v>0.41464239000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>616.73455839999997</v>
       </c>
@@ -14707,7 +16717,7 @@
         <v>0.38277096999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>616.99511470000004</v>
       </c>
@@ -14715,7 +16725,7 @@
         <v>0.35875323199999998</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>617.25111579999998</v>
       </c>
@@ -14723,7 +16733,7 @@
         <v>0.33521651400000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>617.33937909999997</v>
       </c>
@@ -14731,7 +16741,7 @@
         <v>0.31212211899999998</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>617.65374580000002</v>
       </c>
@@ -14739,7 +16749,7 @@
         <v>0.28710265699999998</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>617.78407189999996</v>
       </c>
@@ -14747,7 +16757,7 @@
         <v>0.26272373900000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>618.45520169999998</v>
       </c>
@@ -14755,7 +16765,7 @@
         <v>0.235975411</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>620.08222520000004</v>
       </c>
@@ -14763,7 +16773,7 @@
         <v>0.220473374</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>621.60964209999997</v>
       </c>
@@ -14771,7 +16781,7 @@
         <v>0.21399553900000001</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>622.49310760000003</v>
       </c>
@@ -14779,7 +16789,7 @@
         <v>0.18964816400000001</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>625.04342529999997</v>
       </c>
@@ -14787,7 +16797,7 @@
         <v>0.19422573400000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>625.86079629999995</v>
       </c>
@@ -14795,7 +16805,7 @@
         <v>0.222225126</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>626.89188079999997</v>
       </c>
@@ -14803,7 +16813,7 @@
         <v>0.24778489500000001</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>628.23001050000005</v>
       </c>
@@ -14811,7 +16821,7 @@
         <v>0.26953634999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>628.82229110000003</v>
       </c>
@@ -14819,7 +16829,7 @@
         <v>0.29254917899999999</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>629.35823740000001</v>
       </c>
@@ -14827,7 +16837,7 @@
         <v>0.31646930299999998</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>629.56158070000004</v>
       </c>
@@ -14835,7 +16845,7 @@
         <v>0.34780665100000002</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>629.6986005</v>
       </c>
@@ -14843,7 +16853,7 @@
         <v>0.37917437399999998</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>629.86623110000005</v>
       </c>
@@ -14851,7 +16861,7 @@
         <v>0.40507897799999998</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>629.96097889999999</v>
       </c>
@@ -14859,7 +16869,7 @@
         <v>0.43022955099999999</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>630.15047430000004</v>
       </c>
@@ -14867,7 +16877,7 @@
         <v>0.45541114599999999</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>630.25481190000005</v>
       </c>
@@ -14875,7 +16885,7 @@
         <v>0.48146058000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>630.37641129999997</v>
       </c>
@@ -14883,7 +16893,7 @@
         <v>0.50750734799999997</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>630.47115899999994</v>
       </c>
@@ -14891,7 +16901,7 @@
         <v>0.53294731699999998</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>630.58048329999997</v>
       </c>
@@ -14899,7 +16909,7 @@
         <v>0.55859018299999996</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>630.80787789999999</v>
       </c>
@@ -14907,7 +16917,7 @@
         <v>0.58612539900000005</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>630.89694850000001</v>
       </c>
@@ -14915,7 +16925,7 @@
         <v>0.613923514</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>630.99591569999995</v>
       </c>
@@ -14923,7 +16933,7 @@
         <v>0.64038255300000002</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>631.12710489999995</v>
       </c>
@@ -14931,7 +16941,7 @@
         <v>0.665852263</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>631.3517167</v>
       </c>
@@ -14939,7 +16949,7 @@
         <v>0.69399699000000004</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>631.76118599999995</v>
       </c>
@@ -14947,7 +16957,7 @@
         <v>0.72133612999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>631.93063859999995</v>
       </c>
@@ -14955,7 +16965,7 @@
         <v>0.74847070599999999</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>632.02451499999995</v>
       </c>
@@ -14963,7 +16973,7 @@
         <v>0.77158448000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>632.2009127</v>
       </c>
@@ -14971,7 +16981,7 @@
         <v>0.79899790900000001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>632.33961099999999</v>
       </c>
@@ -14979,7 +16989,7 @@
         <v>0.82860351200000004</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>632.45489840000005</v>
       </c>
@@ -14987,7 +16997,7 @@
         <v>0.85730358100000004</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>632.52645619999998</v>
       </c>
@@ -14995,7 +17005,7 @@
         <v>0.90617208599999999</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>632.52645619999998</v>
       </c>
@@ -15003,7 +17013,7 @@
         <v>0.93674090600000004</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>632.58608760000004</v>
       </c>
@@ -15011,7 +17021,7 @@
         <v>0.87961098400000004</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>633.90394260000005</v>
       </c>
@@ -15019,7 +17029,7 @@
         <v>0.83057947600000004</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>633.94767230000002</v>
       </c>
@@ -15027,7 +17037,7 @@
         <v>0.73646893800000002</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>633.96953719999999</v>
       </c>
@@ -15035,7 +17045,7 @@
         <v>0.76019263500000001</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>633.96953719999999</v>
       </c>
@@ -15043,7 +17053,7 @@
         <v>0.85714744700000001</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>633.99338980000005</v>
       </c>
@@ -15051,7 +17061,7 @@
         <v>0.79975290099999996</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>634.04300309999996</v>
       </c>
@@ -15059,7 +17069,7 @@
         <v>0.70937664499999997</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>634.04333110000005</v>
       </c>
@@ -15067,7 +17077,7 @@
         <v>0.67772732000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>634.15474540000002</v>
       </c>
@@ -15075,7 +17085,7 @@
         <v>0.65445532799999995</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>634.61539159999995</v>
       </c>
@@ -15083,7 +17093,7 @@
         <v>0.62669799500000001</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>634.89660739999999</v>
       </c>
@@ -15091,7 +17101,7 @@
         <v>0.59964611800000001</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>635.45298409999998</v>
       </c>
@@ -15099,7 +17109,7 @@
         <v>0.57837172999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>636.8556992</v>
       </c>
@@ -15107,7 +17117,7 @@
         <v>0.61805422899999996</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>636.93222619999995</v>
       </c>
@@ -15115,7 +17125,7 @@
         <v>0.55866466800000003</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>637.06068230000005</v>
       </c>
@@ -15123,7 +17133,7 @@
         <v>0.52894293000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>637.11807750000003</v>
       </c>
@@ -15131,7 +17141,7 @@
         <v>0.59363499399999997</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>637.19187150000005</v>
       </c>
@@ -15139,7 +17149,7 @@
         <v>0.50638379700000002</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>637.28013480000004</v>
       </c>
@@ -15147,7 +17157,7 @@
         <v>0.48335834599999999</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>637.60424920000003</v>
       </c>
@@ -15155,7 +17165,7 @@
         <v>0.45967927800000002</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>637.71662819999995</v>
       </c>
@@ -15163,7 +17173,7 @@
         <v>0.43656051699999998</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>637.85601670000005</v>
       </c>
@@ -15171,7 +17181,7 @@
         <v>0.41377366500000001</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>638.12823419999995</v>
       </c>
@@ -15179,7 +17189,7 @@
         <v>0.38839168200000002</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>638.34020829999997</v>
       </c>
@@ -15187,7 +17197,7 @@
         <v>0.36100594699999999</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>638.58967789999997</v>
       </c>
@@ -15195,7 +17205,7 @@
         <v>0.33090102599999999</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>638.76614159999997</v>
       </c>
@@ -15203,7 +17213,7 @@
         <v>0.30368581900000002</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>638.98752339999999</v>
       </c>
@@ -15211,7 +17221,7 @@
         <v>0.27578931600000001</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>639.24990170000001</v>
       </c>
@@ -15219,7 +17229,7 @@
         <v>0.242565215</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>639.54792929999996</v>
       </c>
@@ -15227,7 +17237,7 @@
         <v>0.21074987100000001</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>639.99733479999998</v>
       </c>
@@ -15235,7 +17245,7 @@
         <v>0.182698426</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>640.4352897</v>
       </c>
@@ -15243,7 +17253,7 @@
         <v>0.15666243399999999</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>641.61017609999999</v>
       </c>
@@ -15251,7 +17261,7 @@
         <v>0.12841528899999999</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>643.78998449999995</v>
       </c>
@@ -15259,7 +17269,7 @@
         <v>0.120024245</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>645.61509990000002</v>
       </c>
@@ -15267,7 +17277,7 @@
         <v>0.14209055500000001</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>646.44500370000003</v>
       </c>
@@ -15275,7 +17285,7 @@
         <v>0.17266993999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>647.66180069999996</v>
       </c>
@@ -15283,7 +17293,7 @@
         <v>0.19563887499999999</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>649.5529378</v>
       </c>
@@ -15291,7 +17301,7 @@
         <v>0.190647709</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>650.04021190000003</v>
       </c>
@@ -15299,7 +17309,7 @@
         <v>0.166901094</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>650.91917950000004</v>
       </c>
@@ -15307,7 +17317,7 @@
         <v>0.14501604700000001</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>651.95956669999998</v>
       </c>
@@ -15315,7 +17325,7 @@
         <v>0.12226371900000001</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>653.64791439999999</v>
       </c>
@@ -15323,7 +17333,7 @@
         <v>9.9291830999999997E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>655.55835690000004</v>
       </c>
@@ -15331,7 +17341,7 @@
         <v>8.7094881999999998E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>658.1083466</v>
       </c>
@@ -15339,7 +17349,7 @@
         <v>7.8293866000000004E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>660.86331940000002</v>
       </c>
@@ -15347,7 +17357,7 @@
         <v>6.6993564000000005E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>663.61829220000004</v>
       </c>
@@ -15355,7 +17365,7 @@
         <v>5.5668456999999998E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>666.37326510000003</v>
       </c>
@@ -15363,7 +17373,7 @@
         <v>4.8337011999999999E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>669.12823790000004</v>
       </c>
@@ -15371,7 +17381,7 @@
         <v>4.9662633999999997E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>671.88321069999995</v>
       </c>
@@ -15379,7 +17389,7 @@
         <v>4.6002380000000002E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>674.63818349999997</v>
       </c>
@@ -15387,7 +17397,7 @@
         <v>3.94399E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>677.39315629999999</v>
       </c>
@@ -15395,7 +17405,7 @@
         <v>3.5109901999999998E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>680.14812910000001</v>
       </c>
@@ -15403,7 +17413,7 @@
         <v>3.154887E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>682.90310199999999</v>
       </c>
@@ -15411,7 +17421,7 @@
         <v>2.8483944000000001E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>685.65807480000001</v>
       </c>
@@ -15419,7 +17429,7 @@
         <v>2.5766293999999999E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>688.41304760000003</v>
       </c>
@@ -15427,7 +17437,7 @@
         <v>2.3395919000000001E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>691.16802040000005</v>
       </c>
@@ -15435,7 +17445,7 @@
         <v>2.1248791E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>693.92299319999995</v>
       </c>
@@ -15443,7 +17453,7 @@
         <v>1.9250495999999999E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>696.67796599999997</v>
       </c>
@@ -15451,7 +17461,7 @@
         <v>1.7525059999999999E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>699.43293889999995</v>
       </c>
@@ -15459,7 +17469,7 @@
         <v>1.5998065999999998E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>702.18791169999997</v>
       </c>
@@ -15467,7 +17477,7 @@
         <v>1.4495878E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>704.94288449999999</v>
       </c>
@@ -15475,7 +17485,7 @@
         <v>1.3266549000000001E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>707.69785730000001</v>
       </c>
@@ -15483,7 +17493,7 @@
         <v>1.208683E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>710.45283010000003</v>
       </c>
@@ -15491,7 +17501,7 @@
         <v>1.0931916999999999E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>713.20780290000005</v>
       </c>
@@ -15499,7 +17509,7 @@
         <v>9.9506409999999997E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>715.96277580000003</v>
       </c>
@@ -15507,7 +17517,7 @@
         <v>9.0437810000000007E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>718.71774860000005</v>
       </c>
@@ -15515,7 +17525,7 @@
         <v>8.4841959999999994E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>721.47272139999995</v>
       </c>
@@ -15523,7 +17533,7 @@
         <v>7.8005840000000002E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>724.22769419999997</v>
       </c>
@@ -15531,7 +17541,7 @@
         <v>7.0425569999999996E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>726.98266699999999</v>
       </c>
@@ -15539,7 +17549,7 @@
         <v>6.8798569999999996E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>729.73763980000001</v>
       </c>
@@ -15547,7 +17557,7 @@
         <v>6.221051E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>732.49261260000003</v>
       </c>
@@ -15555,7 +17565,7 @@
         <v>6.0583520000000004E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>735.24758550000001</v>
       </c>
@@ -15563,7 +17573,7 @@
         <v>5.7468199999999997E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>738.00255830000003</v>
       </c>
@@ -15571,7 +17581,7 @@
         <v>5.4104840000000001E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>740.75753110000005</v>
       </c>
@@ -15579,7 +17589,7 @@
         <v>5.1981739999999999E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>743.51250389999996</v>
       </c>
@@ -15587,7 +17597,7 @@
         <v>5.2587220000000004E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>746.26747669999997</v>
       </c>
@@ -15595,7 +17605,7 @@
         <v>5.3192710000000004E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>749.02244949999999</v>
       </c>
@@ -15603,7 +17613,7 @@
         <v>5.3798199999999996E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>750.72790889999999</v>
       </c>
@@ -15617,7 +17627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC4A572-B801-EF4F-8D97-ED930231871C}">
   <dimension ref="A1:B98"/>
   <sheetViews>
@@ -15625,12 +17635,12 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15638,7 +17648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>406</v>
       </c>
@@ -15646,7 +17656,7 @@
         <v>6.6904578997437599E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>410</v>
       </c>
@@ -15654,7 +17664,7 @@
         <v>1.09756782333814E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>414</v>
       </c>
@@ -15662,7 +17672,7 @@
         <v>1.6493600246550499E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>418</v>
       </c>
@@ -15670,7 +17680,7 @@
         <v>2.4099443945008799E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>422</v>
       </c>
@@ -15678,7 +17688,7 @@
         <v>4.7395399096806699E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>426</v>
       </c>
@@ -15686,7 +17696,7 @@
         <v>7.4212127128073402E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>430</v>
       </c>
@@ -15694,7 +17704,7 @@
         <v>0.13254889691399699</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>432.60489510489498</v>
       </c>
@@ -15702,7 +17712,7 @@
         <v>0.18651685393258399</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>434</v>
       </c>
@@ -15710,7 +17720,7 @@
         <v>0.23684387042975999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>436.53846153846098</v>
       </c>
@@ -15718,7 +17728,7 @@
         <v>0.307865168539326</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>438</v>
       </c>
@@ -15726,7 +17736,7 @@
         <v>0.37289311051931101</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>442</v>
       </c>
@@ -15734,7 +17744,7 @@
         <v>0.40981579187369699</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>445.192307692307</v>
       </c>
@@ -15742,7 +17752,7 @@
         <v>0.36629213483146</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>446</v>
       </c>
@@ -15750,7 +17760,7 @@
         <v>0.33180944808345397</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>447.55244755244701</v>
       </c>
@@ -15758,7 +17768,7 @@
         <v>0.30112359550561801</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>450</v>
       </c>
@@ -15766,7 +17776,7 @@
         <v>0.26609291840266702</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>454</v>
       </c>
@@ -15774,7 +17784,7 @@
         <v>0.25186904082795097</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>458</v>
       </c>
@@ -15782,7 +17792,7 @@
         <v>0.22652415665804801</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>462</v>
       </c>
@@ -15790,7 +17800,7 @@
         <v>0.189169211547106</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>466</v>
       </c>
@@ -15798,7 +17808,7 @@
         <v>0.166731565767953</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>470</v>
       </c>
@@ -15806,7 +17816,7 @@
         <v>0.170718506034989</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>474</v>
       </c>
@@ -15814,7 +17824,7 @@
         <v>0.18259881730403199</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>478</v>
       </c>
@@ -15822,7 +17832,7 @@
         <v>0.20124126572794099</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>482</v>
       </c>
@@ -15830,7 +17840,7 @@
         <v>0.22629307205319099</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>486</v>
       </c>
@@ -15838,7 +17848,7 @@
         <v>0.26031581784426899</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>490</v>
       </c>
@@ -15846,7 +17856,7 @@
         <v>0.29458815444667302</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>494</v>
       </c>
@@ -15854,7 +17864,7 @@
         <v>0.32496186789364701</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>498</v>
       </c>
@@ -15862,7 +17872,7 @@
         <v>0.35447531255757803</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>502</v>
       </c>
@@ -15870,7 +17880,7 @@
         <v>0.37722975166343697</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>506</v>
       </c>
@@ -15878,7 +17888,7 @@
         <v>0.39864323300072901</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>510</v>
       </c>
@@ -15886,7 +17896,7 @@
         <v>0.41768785680148901</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>514</v>
       </c>
@@ -15894,7 +17904,7 @@
         <v>0.432721030675148</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>518</v>
       </c>
@@ -15902,7 +17912,7 @@
         <v>0.44164612749374299</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>522</v>
       </c>
@@ -15910,7 +17920,7 @@
         <v>0.45695082138894599</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>526</v>
       </c>
@@ -15918,7 +17928,7 @@
         <v>0.47066988161405499</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>530</v>
       </c>
@@ -15926,7 +17936,7 @@
         <v>0.48293865579964401</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>534</v>
       </c>
@@ -15934,7 +17944,7 @@
         <v>0.50160964059857605</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>538</v>
       </c>
@@ -15942,7 +17952,7 @@
         <v>0.51828431702024402</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>542</v>
       </c>
@@ -15950,7 +17960,7 @@
         <v>0.53476211342248203</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>546</v>
       </c>
@@ -15958,7 +17968,7 @@
         <v>0.55823214350218697</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>550</v>
       </c>
@@ -15966,7 +17976,7 @@
         <v>0.57968228548200995</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>554</v>
       </c>
@@ -15974,7 +17984,7 @@
         <v>0.60578749636970097</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>558</v>
       </c>
@@ -15982,7 +17992,7 @@
         <v>0.63016700970106698</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>562</v>
       </c>
@@ -15990,7 +18000,7 @@
         <v>0.66105861683465195</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>566</v>
       </c>
@@ -15998,7 +18008,7 @@
         <v>0.68819886427559596</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>570</v>
       </c>
@@ -16006,7 +18016,7 @@
         <v>0.72266368575135598</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>574</v>
       </c>
@@ -16014,7 +18024,7 @@
         <v>0.75377401848939396</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>578</v>
       </c>
@@ -16022,7 +18032,7 @@
         <v>0.78524632489954405</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>582</v>
       </c>
@@ -16030,7 +18040,7 @@
         <v>0.81527945069086905</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>586</v>
       </c>
@@ -16038,7 +18048,7 @@
         <v>0.84214910462773396</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>590</v>
       </c>
@@ -16046,7 +18056,7 @@
         <v>0.86802710815422102</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>594</v>
       </c>
@@ -16054,7 +18064,7 @@
         <v>0.88843433219131096</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>598</v>
       </c>
@@ -16062,7 +18072,7 @@
         <v>0.90424198850437099</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>602</v>
       </c>
@@ -16070,7 +18080,7 @@
         <v>0.91733910330860602</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>606</v>
       </c>
@@ -16078,7 +18088,7 @@
         <v>0.92367802512494901</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>610</v>
       </c>
@@ -16086,7 +18096,7 @@
         <v>0.92549919840720596</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>614</v>
       </c>
@@ -16094,7 +18104,7 @@
         <v>0.93203249308750502</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>618</v>
       </c>
@@ -16102,7 +18112,7 @@
         <v>0.93745034830921004</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>622</v>
       </c>
@@ -16110,7 +18120,7 @@
         <v>0.95058269621427904</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>626</v>
       </c>
@@ -16118,7 +18128,7 @@
         <v>0.95581827683523501</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>630</v>
       </c>
@@ -16126,7 +18136,7 @@
         <v>0.97286583770462798</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>634</v>
       </c>
@@ -16134,7 +18144,7 @@
         <v>0.98963241860431195</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>638</v>
       </c>
@@ -16142,7 +18152,7 @@
         <v>0.99333011229183898</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>642</v>
       </c>
@@ -16150,7 +18160,7 @@
         <v>0.99135673246553702</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>646.59090909090901</v>
       </c>
@@ -16158,7 +18168,7 @@
         <v>0.97078651685393202</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>648.164335664335</v>
       </c>
@@ -16166,7 +18176,7 @@
         <v>0.94831460674157297</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>650</v>
       </c>
@@ -16174,7 +18184,7 @@
         <v>0.91749969785374297</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>652.88461538461502</v>
       </c>
@@ -16182,7 +18192,7 @@
         <v>0.87640449438202195</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>656.03146853146802</v>
       </c>
@@ -16190,7 +18200,7 @@
         <v>0.82022471910112305</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>658</v>
       </c>
@@ -16198,7 +18208,7 @@
         <v>0.76601226693903102</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>662</v>
       </c>
@@ -16206,7 +18216,7 @@
         <v>0.69659663043381304</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>666</v>
       </c>
@@ -16214,7 +18224,7 @@
         <v>0.62551841908192796</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>670</v>
       </c>
@@ -16222,7 +18232,7 @@
         <v>0.56265464263073195</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>674</v>
       </c>
@@ -16230,7 +18240,7 @@
         <v>0.50359046954723696</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>678</v>
       </c>
@@ -16238,7 +18248,7 @@
         <v>0.44805741816103101</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>682</v>
       </c>
@@ -16246,7 +18256,7 @@
         <v>0.398086213267767</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>686</v>
       </c>
@@ -16254,7 +18264,7 @@
         <v>0.35064824074113699</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>690</v>
       </c>
@@ -16262,7 +18272,7 @@
         <v>0.30685117211575902</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>694</v>
       </c>
@@ -16270,7 +18280,7 @@
         <v>0.27032663826236097</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>698</v>
       </c>
@@ -16278,7 +18288,7 @@
         <v>0.23823366312823499</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>702</v>
       </c>
@@ -16286,7 +18296,7 @@
         <v>0.20677657441964101</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>706</v>
       </c>
@@ -16294,7 +18304,7 @@
         <v>0.18127219272189901</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>710</v>
       </c>
@@ -16302,7 +18312,7 @@
         <v>0.15507082392514401</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>714</v>
       </c>
@@ -16310,7 +18320,7 @@
         <v>0.13519769823151501</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>718</v>
       </c>
@@ -16318,7 +18328,7 @@
         <v>0.119974554847379</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>722</v>
       </c>
@@ -16326,7 +18336,7 @@
         <v>0.103647344753383</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>726</v>
       </c>
@@ -16334,7 +18344,7 @@
         <v>9.0303918113165293E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>730</v>
       </c>
@@ -16342,7 +18352,7 @@
         <v>7.8850717635606096E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>734</v>
       </c>
@@ -16350,7 +18360,7 @@
         <v>6.7496601700776801E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>738</v>
       </c>
@@ -16358,7 +18368,7 @@
         <v>5.9758466420031603E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>742</v>
       </c>
@@ -16366,7 +18376,7 @@
         <v>5.1443855988362701E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>746</v>
       </c>
@@ -16374,7 +18384,7 @@
         <v>4.69503260470727E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>753.58391608391605</v>
       </c>
@@ -16382,7 +18392,7 @@
         <v>3.5955056179775402E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>764.59790209790197</v>
       </c>
@@ -16390,7 +18400,7 @@
         <v>2.4719101123595599E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>777.97202797202794</v>
       </c>
@@ -16398,7 +18408,7 @@
         <v>1.5730337078651901E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>788.98601398601397</v>
       </c>
@@ -16406,7 +18416,7 @@
         <v>1.1235955056179799E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>798.42657342657299</v>
       </c>
@@ -16423,32 +18433,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5D18A4-336F-8D43-A03A-36BF0DA53121}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153DDF82-4467-2540-BE67-32E0A85FED1B}">
   <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16456,7 +18466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>403.564791951225</v>
       </c>
@@ -16464,7 +18474,7 @@
         <v>9.7013298452146499E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>408.55397314801201</v>
       </c>
@@ -16472,7 +18482,7 @@
         <v>9.5923261390888897E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>413.53952088792698</v>
       </c>
@@ -16480,7 +18490,7 @@
         <v>1.02463483758448E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>418.51935890990302</v>
       </c>
@@ -16488,7 +18498,7 @@
         <v>1.20994113799868E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>423.48051058225701</v>
       </c>
@@ -16496,7 +18506,7 @@
         <v>1.78766078046654E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>428.40273235956602</v>
       </c>
@@ -16504,7 +18514,7 @@
         <v>3.1829082188794301E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>433.29244767451303</v>
       </c>
@@ -16512,7 +18522,7 @@
         <v>5.2607913669064699E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>436.10368847778898</v>
       </c>
@@ -16520,7 +18530,7 @@
         <v>8.1294964028777006E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>438.40044847239</v>
       </c>
@@ -16528,7 +18538,7 @@
         <v>0.11412688031392999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>440.77717417902397</v>
       </c>
@@ -16536,7 +18546,7 @@
         <v>0.14748201438848901</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>443.60200151567</v>
       </c>
@@ -16544,7 +18554,7 @@
         <v>0.173315892740353</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>448.63218886857101</v>
       </c>
@@ -16552,7 +18562,7 @@
         <v>0.16459559625027201</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>453.69559639857601</v>
       </c>
@@ -16560,7 +18570,7 @@
         <v>0.14889906256812699</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>458.68581572589801</v>
       </c>
@@ -16568,7 +18578,7 @@
         <v>0.148572051449749</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>463.69472140284</v>
       </c>
@@ -16576,7 +18586,7 @@
         <v>0.14432090691083499</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>468.670406902678</v>
       </c>
@@ -16584,7 +18594,7 @@
         <v>0.14704599956398501</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>473.57601859143398</v>
       </c>
@@ -16592,7 +18602,7 @@
         <v>0.16448659254414599</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>478.47124897484599</v>
       </c>
@@ -16600,7 +18610,7 @@
         <v>0.184107259646828</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>483.34312142123002</v>
       </c>
@@ -16608,7 +18618,7 @@
         <v>0.208633093525179</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>488.21239854127799</v>
       </c>
@@ -16616,7 +18626,7 @@
         <v>0.23370394593416099</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>493.096728554077</v>
       </c>
@@ -16624,7 +18634,7 @@
         <v>0.25561369086548902</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>497.99766865542801</v>
       </c>
@@ -16632,7 +18642,7 @@
         <v>0.274035317200784</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>502.889265581968</v>
       </c>
@@ -16640,7 +18650,7 @@
         <v>0.29441901024634798</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>507.54580009461802</v>
       </c>
@@ -16648,7 +18658,7 @@
         <v>0.31654676258992798</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>512.20129647673298</v>
       </c>
@@ -16656,7 +18666,7 @@
         <v>0.33889252234575901</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>517.088221815868</v>
       </c>
@@ -16664,7 +18674,7 @@
         <v>0.36025724874645698</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>522.00629107103896</v>
       </c>
@@ -16672,7 +18682,7 @@
         <v>0.37508175277959399</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>526.94460387163303</v>
       </c>
@@ -16680,7 +18690,7 @@
         <v>0.38565511227381699</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>531.87668788901999</v>
       </c>
@@ -16688,7 +18698,7 @@
         <v>0.39753651624155201</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>536.82590106022701</v>
       </c>
@@ -16696,7 +18706,7 @@
         <v>0.40582079790712799</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>541.770442644029</v>
       </c>
@@ -16704,7 +18714,7 @@
         <v>0.41508611292783898</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>546.73107525111595</v>
       </c>
@@ -16712,7 +18722,7 @@
         <v>0.42097231305864402</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>551.72233270897198</v>
       </c>
@@ -16720,7 +18730,7 @@
         <v>0.42042729452801397</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>556.73954343019</v>
       </c>
@@ -16728,7 +18738,7 @@
         <v>0.414432090691083</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>561.76246386934895</v>
       </c>
@@ -16736,7 +18746,7 @@
         <v>0.407237846086766</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>566.780193655836</v>
       </c>
@@ -16744,7 +18754,7 @@
         <v>0.40113363854370998</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>571.76470326521701</v>
       </c>
@@ -16752,7 +18762,7 @@
         <v>0.40200566819271799</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>576.67602467191296</v>
       </c>
@@ -16760,7 +18770,7 @@
         <v>0.418247220405493</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>580.89011783770195</v>
       </c>
@@ -16768,7 +18778,7 @@
         <v>0.43804956035171799</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>582.83544592897101</v>
       </c>
@@ -16776,7 +18786,7 @@
         <v>0.46762589928057502</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>584.91992120589202</v>
       </c>
@@ -16784,7 +18794,7 @@
         <v>0.49655275779376401</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>586.96560376930302</v>
       </c>
@@ -16792,7 +18802,7 @@
         <v>0.52583387835186302</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>588.419513822049</v>
       </c>
@@ -16800,7 +18810,7 @@
         <v>0.55528910205169202</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>589.55131812917</v>
       </c>
@@ -16808,7 +18818,7 @@
         <v>0.58348321342925602</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>590.77697026052601</v>
       </c>
@@ -16816,7 +18826,7 @@
         <v>0.61181055155875297</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>591.49578296546395</v>
       </c>
@@ -16824,7 +18834,7 @@
         <v>0.63943131209318205</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>592.78118321669103</v>
       </c>
@@ -16832,7 +18842,7 @@
         <v>0.66711630695443602</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>593.49581559242404</v>
       </c>
@@ -16840,7 +18850,7 @@
         <v>0.69561493662213003</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>594.92213279469195</v>
       </c>
@@ -16848,7 +18858,7 @@
         <v>0.72509265315020699</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>596.15690667420699</v>
       </c>
@@ -16856,7 +18866,7 @@
         <v>0.76112443378630401</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>596.67775983294996</v>
       </c>
@@ -16864,7 +18874,7 @@
         <v>0.78931140801644395</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>597.96672865789003</v>
       </c>
@@ -16872,7 +18882,7 @@
         <v>0.81624700239808101</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>598.97587598855102</v>
       </c>
@@ -16880,7 +18890,7 @@
         <v>0.84638955502264801</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>600.20129021499304</v>
       </c>
@@ -16888,7 +18898,7 @@
         <v>0.87476685318411895</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>601.70127348955702</v>
       </c>
@@ -16896,7 +18906,7 @@
         <v>0.90320470896010396</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>602.575184750159</v>
       </c>
@@ -16904,7 +18914,7 @@
         <v>0.93180455635491599</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>604.43845294821597</v>
       </c>
@@ -16912,7 +18922,7 @@
         <v>0.96043165467625902</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>608.90975994714404</v>
       </c>
@@ -16920,7 +18930,7 @@
         <v>0.97654376498800899</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>612.55529898900897</v>
       </c>
@@ -16928,7 +18938,7 @@
         <v>0.961521691737519</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>614.57056576960599</v>
       </c>
@@ -16936,7 +18946,7 @@
         <v>0.93658406608046896</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>616.732634300722</v>
       </c>
@@ -16944,7 +18954,7 @@
         <v>0.91112110311750505</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>618.44402029396895</v>
       </c>
@@ -16952,7 +18962,7 @@
         <v>0.88506337786913303</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>620.33176180144301</v>
       </c>
@@ -16960,7 +18970,7 @@
         <v>0.85371702637889602</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>622.52761056460895</v>
       </c>
@@ -16968,7 +18978,7 @@
         <v>0.81798561151079097</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>624.24034798135494</v>
       </c>
@@ -16976,7 +18986,7 @@
         <v>0.78471768040113299</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>626.04846734857006</v>
       </c>
@@ -16984,7 +18994,7 @@
         <v>0.754796163069544</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>627.57159351883502</v>
       </c>
@@ -16992,7 +19002,7 @@
         <v>0.72488675726085705</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>629.41557700036606</v>
       </c>
@@ -17000,7 +19010,7 @@
         <v>0.69359058207978996</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>630.77731692197199</v>
       </c>
@@ -17008,7 +19018,7 @@
         <v>0.66411870503597104</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>632.50942103460102</v>
       </c>
@@ -17016,7 +19026,7 @@
         <v>0.63609112709832105</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>634.19639798365301</v>
       </c>
@@ -17024,7 +19034,7 @@
         <v>0.60563549160671404</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>635.69054960113499</v>
       </c>
@@ -17032,7 +19042,7 @@
         <v>0.57757793764987997</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>637.27457942942704</v>
       </c>
@@ -17040,7 +19050,7 @@
         <v>0.549693578470556</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>639.57464825912905</v>
       </c>
@@ -17048,7 +19058,7 @@
         <v>0.51689557444953105</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>641.25950939928305</v>
       </c>
@@ -17056,7 +19066,7 @@
         <v>0.48534505728750299</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>643.20543565147796</v>
       </c>
@@ -17064,7 +19074,7 @@
         <v>0.45659472422062303</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>645.63488355882998</v>
       </c>
@@ -17072,7 +19082,7 @@
         <v>0.42173533900152599</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>648.01454754563701</v>
       </c>
@@ -17080,7 +19090,7 @@
         <v>0.38953836930455599</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>650.16395047227502</v>
       </c>
@@ -17088,7 +19098,7 @@
         <v>0.36144417799093997</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>652.12564642163795</v>
       </c>
@@ -17096,7 +19106,7 @@
         <v>0.33573141486810498</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>654.28294099414302</v>
       </c>
@@ -17104,7 +19114,7 @@
         <v>0.311270983213429</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>656.47164807836202</v>
       </c>
@@ -17112,7 +19122,7 @@
         <v>0.28550492938982103</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>659.06845951809896</v>
       </c>
@@ -17120,7 +19130,7 @@
         <v>0.258693045563549</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>662.15027977617899</v>
       </c>
@@ -17128,7 +19138,7 @@
         <v>0.23055841041452499</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>665.85946313592694</v>
       </c>
@@ -17136,7 +19146,7 @@
         <v>0.20254565578306499</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>669.22595504301501</v>
       </c>
@@ -17144,7 +19154,7 @@
         <v>0.17756703727926701</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>673.85862738380695</v>
       </c>
@@ -17152,7 +19162,7 @@
         <v>0.15275779376498799</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>678.73960571802297</v>
       </c>
@@ -17160,7 +19170,7 @@
         <v>0.12775234357968099</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>683.83519529459898</v>
       </c>
@@ -17168,7 +19178,7 @@
         <v>0.105297580117724</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>688.90898412995</v>
       </c>
@@ -17176,7 +19186,7 @@
         <v>8.7420972313058495E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>693.96875820308503</v>
       </c>
@@ -17184,7 +19194,7 @@
         <v>7.2487464573795596E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>699.017631905607</v>
       </c>
@@ -17192,7 +19202,7 @@
         <v>5.9843034663178599E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>704.04989551957601</v>
       </c>
@@ -17200,7 +19210,7 @@
         <v>5.06867233485939E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>709.07852567667499</v>
       </c>
@@ -17208,7 +19218,7 @@
         <v>4.22934379768913E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>714.09988892003196</v>
       </c>
@@ -17216,7 +19226,7 @@
         <v>3.5426204490952698E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>719.11554244545005</v>
       </c>
@@ -17224,7 +19234,7 @@
         <v>2.9758011772400301E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>724.123929057125</v>
       </c>
@@ -17232,7 +19242,7 @@
         <v>2.5615870939611901E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>729.13283473406796</v>
       </c>
@@ -17240,7 +19250,7 @@
         <v>2.13647264006975E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>734.13810695413895</v>
       </c>
@@ -17248,7 +19258,7 @@
         <v>1.78766078046654E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>739.14286010894398</v>
       </c>
@@ -17256,7 +19266,7 @@
         <v>1.44974929147589E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>744.14346074161006</v>
       </c>
@@ -17264,7 +19274,7 @@
         <v>1.1990407673861E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>749.13679446053504</v>
       </c>
@@ -17272,7 +19282,7 @@
         <v>1.10093743187269E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>754.12753285312397</v>
       </c>
@@ -17280,7 +19290,7 @@
         <v>1.05733594942227E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>759.11930937624595</v>
       </c>
@@ -17288,7 +19298,7 @@
         <v>9.9193372574668502E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>764.10952870356698</v>
       </c>
@@ -17296,7 +19306,7 @@
         <v>9.5923261390888897E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>769.10390055302696</v>
       </c>
@@ -17304,7 +19314,7 @@
         <v>8.3932853717025805E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>774.09256268454601</v>
       </c>
@@ -17312,7 +19322,7 @@
         <v>8.3932853717025805E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>779.08174388133205</v>
       </c>
@@ -17320,7 +19330,7 @@
         <v>8.2842816655768203E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>784.07144414338597</v>
       </c>
@@ -17328,7 +19338,7 @@
         <v>8.06627425332462E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>787.93237518828403</v>
       </c>
